--- a/Paris/Publicar.xlsx
+++ b/Paris/Publicar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\Paris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E0A642-205D-4949-B4A2-0DB03B8E7546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC4C86-E7F8-41CC-857C-1F05BEAF9F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hombre Zapato" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SandaliaMujer" sheetId="4" r:id="rId3"/>
     <sheet name="Mujer Zapatilla" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="8" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$E$1:$E$18</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="378">
   <si>
     <t>36</t>
   </si>
@@ -843,6 +844,336 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/2109Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/2109Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/2109Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/2109Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12827_088ef7e7</t>
+  </si>
+  <si>
+    <t>Zapato de Mujer 2D7H-1A Rosado</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12828_92b75b72</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12829_12a50d56</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12830_2a275465</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12831_2a229070</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12832_a9391422</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12833_2e213091</t>
+  </si>
+  <si>
+    <t>Zapato de Mujer 2D7H-1A Blanco</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12834_da71e905</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12835_34a5cc11</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12836_e94e7c4d</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12837_48d33cb3</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12838_aa1b5d80</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12840_ceea7dc1</t>
+  </si>
+  <si>
+    <t>Sandalias de Mujer 12363-9 Camel</t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12841_5b09d943</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12842_05a8baea</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12843_890160f7</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12844_c04aecc2</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12845_12bc16e2</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12846_1cbe6ac7</t>
+  </si>
+  <si>
+    <t>Zapato de Mujer UU675 Negro</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12847_e82475d5</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12848_606672e6</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12849_25ad8990</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12850_77548d42</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12851_298602b2</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12852_fae91863</t>
+  </si>
+  <si>
+    <t>Zapato de Mujer KV059 Negro</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12853_57b69c4f</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12854_00a91a9e</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12855_5848a8cc</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12856_34f9de04</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12857_d57f2e5f</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12858_bcabc6f0</t>
+  </si>
+  <si>
+    <t>Zapato de Mujer Panchita YH-23 Negro</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12859_52bdb8d3</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12860_aa8165ff</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12861_84a14bca</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12862_0d1b29f6</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12863_3f2cbdcb</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12864_2fc00e30</t>
+  </si>
+  <si>
+    <t>Zapato de Mujer Panchita 1212-3 Rojo</t>
+  </si>
+  <si>
+    <t>Rojo:</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12865_4bcdf726</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12866_f7279ea7</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12867_0cc5c8e2</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12868_964c73cb</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12869_fb6a1a4d</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12870_a065debd</t>
+  </si>
+  <si>
+    <t>Sandalias de Mujer HZ02 Negro</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12871_26f3e5b2</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12872_d68443d1</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12873_846745b3</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12874_a52ee63e</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12875_26c9ba9a</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12877_970bd5ba</t>
+  </si>
+  <si>
+    <t>Zapato de Mujer 0630-10 Rojo</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-4.jpg</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12878_94c837f9</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12879_b1f22086</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12880_c8759629</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12881_b3e94d95</t>
+  </si>
+  <si>
+    <t>__export__.product_product_12882_322e4324</t>
   </si>
 </sst>
 </file>
@@ -9024,7 +9355,7 @@
   <sheetPr codeName="Hoja7" filterMode="1"/>
   <dimension ref="A2:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:Q32"/>
     </sheetView>
   </sheetViews>
@@ -9870,4 +10201,2074 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945ECBA5-D59E-4CC3-BE3F-272716ADD57A}">
+  <dimension ref="A1:L54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1">
+        <v>12827</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1">
+        <v>26000</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1">
+        <v>13500</v>
+      </c>
+      <c r="I1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2">
+        <v>12828</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2">
+        <v>26000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2">
+        <v>13500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3">
+        <v>12829</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3">
+        <v>26000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3">
+        <v>13500</v>
+      </c>
+      <c r="I3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4">
+        <v>12830</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4">
+        <v>26000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4">
+        <v>13500</v>
+      </c>
+      <c r="I4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5">
+        <v>12831</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5">
+        <v>26000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5">
+        <v>13500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6">
+        <v>12832</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6">
+        <v>26000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6">
+        <v>13500</v>
+      </c>
+      <c r="I6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7">
+        <v>12833</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7">
+        <v>26000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7">
+        <v>13500</v>
+      </c>
+      <c r="I7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8">
+        <v>12834</v>
+      </c>
+      <c r="C8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8">
+        <v>26000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>13500</v>
+      </c>
+      <c r="I8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9">
+        <v>12835</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9">
+        <v>26000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9">
+        <v>13500</v>
+      </c>
+      <c r="I9" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10">
+        <v>12836</v>
+      </c>
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10">
+        <v>26000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10">
+        <v>13500</v>
+      </c>
+      <c r="I10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J10" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11">
+        <v>12837</v>
+      </c>
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11">
+        <v>26000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11">
+        <v>13500</v>
+      </c>
+      <c r="I11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" t="s">
+        <v>284</v>
+      </c>
+      <c r="K11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12">
+        <v>12838</v>
+      </c>
+      <c r="C12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12">
+        <v>26000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12">
+        <v>13500</v>
+      </c>
+      <c r="I12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" t="s">
+        <v>285</v>
+      </c>
+      <c r="L12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13">
+        <v>12840</v>
+      </c>
+      <c r="C13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13">
+        <v>20000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H13">
+        <v>10000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J13" t="s">
+        <v>297</v>
+      </c>
+      <c r="K13" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14">
+        <v>12841</v>
+      </c>
+      <c r="C14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14">
+        <v>20000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14">
+        <v>10000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15">
+        <v>12842</v>
+      </c>
+      <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15">
+        <v>20000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15">
+        <v>10000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>296</v>
+      </c>
+      <c r="J15" t="s">
+        <v>297</v>
+      </c>
+      <c r="K15" t="s">
+        <v>298</v>
+      </c>
+      <c r="L15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16">
+        <v>12843</v>
+      </c>
+      <c r="C16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16">
+        <v>20000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16">
+        <v>10000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>296</v>
+      </c>
+      <c r="J16" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17">
+        <v>12844</v>
+      </c>
+      <c r="C17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17">
+        <v>20000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17">
+        <v>10000</v>
+      </c>
+      <c r="I17" t="s">
+        <v>296</v>
+      </c>
+      <c r="J17" t="s">
+        <v>297</v>
+      </c>
+      <c r="K17" t="s">
+        <v>298</v>
+      </c>
+      <c r="L17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18">
+        <v>12845</v>
+      </c>
+      <c r="C18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18">
+        <v>20000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18">
+        <v>10000</v>
+      </c>
+      <c r="I18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J18" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19">
+        <v>12846</v>
+      </c>
+      <c r="C19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19">
+        <v>20000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19">
+        <v>7500</v>
+      </c>
+      <c r="I19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" t="s">
+        <v>310</v>
+      </c>
+      <c r="L19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20">
+        <v>12847</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20">
+        <v>20000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20">
+        <v>7500</v>
+      </c>
+      <c r="I20" t="s">
+        <v>308</v>
+      </c>
+      <c r="J20" t="s">
+        <v>309</v>
+      </c>
+      <c r="K20" t="s">
+        <v>310</v>
+      </c>
+      <c r="L20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21">
+        <v>12848</v>
+      </c>
+      <c r="C21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21">
+        <v>20000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21">
+        <v>7500</v>
+      </c>
+      <c r="I21" t="s">
+        <v>308</v>
+      </c>
+      <c r="J21" t="s">
+        <v>309</v>
+      </c>
+      <c r="K21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22">
+        <v>12849</v>
+      </c>
+      <c r="C22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22">
+        <v>20000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22">
+        <v>7500</v>
+      </c>
+      <c r="I22" t="s">
+        <v>308</v>
+      </c>
+      <c r="J22" t="s">
+        <v>309</v>
+      </c>
+      <c r="K22" t="s">
+        <v>310</v>
+      </c>
+      <c r="L22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23">
+        <v>12850</v>
+      </c>
+      <c r="C23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23">
+        <v>20000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23">
+        <v>7500</v>
+      </c>
+      <c r="I23" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" t="s">
+        <v>309</v>
+      </c>
+      <c r="K23" t="s">
+        <v>310</v>
+      </c>
+      <c r="L23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <v>12851</v>
+      </c>
+      <c r="C24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24">
+        <v>20000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>307</v>
+      </c>
+      <c r="H24">
+        <v>7500</v>
+      </c>
+      <c r="I24" t="s">
+        <v>308</v>
+      </c>
+      <c r="J24" t="s">
+        <v>309</v>
+      </c>
+      <c r="K24" t="s">
+        <v>310</v>
+      </c>
+      <c r="L24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25">
+        <v>12852</v>
+      </c>
+      <c r="C25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25">
+        <v>20000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25">
+        <v>7500</v>
+      </c>
+      <c r="I25" t="s">
+        <v>320</v>
+      </c>
+      <c r="J25" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25" t="s">
+        <v>322</v>
+      </c>
+      <c r="L25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26">
+        <v>12853</v>
+      </c>
+      <c r="C26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26">
+        <v>20000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26">
+        <v>7500</v>
+      </c>
+      <c r="I26" t="s">
+        <v>320</v>
+      </c>
+      <c r="J26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" t="s">
+        <v>322</v>
+      </c>
+      <c r="L26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27">
+        <v>12854</v>
+      </c>
+      <c r="C27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27">
+        <v>20000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27">
+        <v>7500</v>
+      </c>
+      <c r="I27" t="s">
+        <v>320</v>
+      </c>
+      <c r="J27" t="s">
+        <v>321</v>
+      </c>
+      <c r="K27" t="s">
+        <v>322</v>
+      </c>
+      <c r="L27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28">
+        <v>12855</v>
+      </c>
+      <c r="C28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28">
+        <v>20000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28">
+        <v>7500</v>
+      </c>
+      <c r="I28" t="s">
+        <v>320</v>
+      </c>
+      <c r="J28" t="s">
+        <v>321</v>
+      </c>
+      <c r="K28" t="s">
+        <v>322</v>
+      </c>
+      <c r="L28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>327</v>
+      </c>
+      <c r="B29">
+        <v>12856</v>
+      </c>
+      <c r="C29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29">
+        <v>20000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H29">
+        <v>7500</v>
+      </c>
+      <c r="I29" t="s">
+        <v>320</v>
+      </c>
+      <c r="J29" t="s">
+        <v>321</v>
+      </c>
+      <c r="K29" t="s">
+        <v>322</v>
+      </c>
+      <c r="L29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B30">
+        <v>12857</v>
+      </c>
+      <c r="C30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30">
+        <v>20000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30">
+        <v>7500</v>
+      </c>
+      <c r="I30" t="s">
+        <v>320</v>
+      </c>
+      <c r="J30" t="s">
+        <v>321</v>
+      </c>
+      <c r="K30" t="s">
+        <v>322</v>
+      </c>
+      <c r="L30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31">
+        <v>12858</v>
+      </c>
+      <c r="C31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31">
+        <v>20000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>331</v>
+      </c>
+      <c r="H31">
+        <v>7500</v>
+      </c>
+      <c r="I31" t="s">
+        <v>332</v>
+      </c>
+      <c r="J31" t="s">
+        <v>333</v>
+      </c>
+      <c r="K31" t="s">
+        <v>334</v>
+      </c>
+      <c r="L31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32">
+        <v>12859</v>
+      </c>
+      <c r="C32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32">
+        <v>20000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H32">
+        <v>7500</v>
+      </c>
+      <c r="I32" t="s">
+        <v>332</v>
+      </c>
+      <c r="J32" t="s">
+        <v>333</v>
+      </c>
+      <c r="K32" t="s">
+        <v>334</v>
+      </c>
+      <c r="L32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33">
+        <v>12860</v>
+      </c>
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33">
+        <v>20000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>331</v>
+      </c>
+      <c r="H33">
+        <v>7500</v>
+      </c>
+      <c r="I33" t="s">
+        <v>332</v>
+      </c>
+      <c r="J33" t="s">
+        <v>333</v>
+      </c>
+      <c r="K33" t="s">
+        <v>334</v>
+      </c>
+      <c r="L33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34">
+        <v>12861</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34">
+        <v>20000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>331</v>
+      </c>
+      <c r="H34">
+        <v>7500</v>
+      </c>
+      <c r="I34" t="s">
+        <v>332</v>
+      </c>
+      <c r="J34" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" t="s">
+        <v>334</v>
+      </c>
+      <c r="L34" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35">
+        <v>12862</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35">
+        <v>20000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>331</v>
+      </c>
+      <c r="H35">
+        <v>7500</v>
+      </c>
+      <c r="I35" t="s">
+        <v>332</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" t="s">
+        <v>334</v>
+      </c>
+      <c r="L35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <v>12863</v>
+      </c>
+      <c r="C36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36">
+        <v>20000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>331</v>
+      </c>
+      <c r="H36">
+        <v>7500</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37">
+        <v>12864</v>
+      </c>
+      <c r="C37" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37">
+        <v>20000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>343</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>344</v>
+      </c>
+      <c r="H37">
+        <v>7000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>345</v>
+      </c>
+      <c r="J37" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" t="s">
+        <v>347</v>
+      </c>
+      <c r="L37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38">
+        <v>12865</v>
+      </c>
+      <c r="C38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38">
+        <v>20000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>343</v>
+      </c>
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>344</v>
+      </c>
+      <c r="H38">
+        <v>7000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39">
+        <v>12866</v>
+      </c>
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39">
+        <v>20000</v>
+      </c>
+      <c r="E39" t="s">
+        <v>343</v>
+      </c>
+      <c r="F39">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>344</v>
+      </c>
+      <c r="H39">
+        <v>7000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>345</v>
+      </c>
+      <c r="J39" t="s">
+        <v>346</v>
+      </c>
+      <c r="K39" t="s">
+        <v>347</v>
+      </c>
+      <c r="L39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40">
+        <v>12867</v>
+      </c>
+      <c r="C40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40">
+        <v>20000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>343</v>
+      </c>
+      <c r="F40">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>344</v>
+      </c>
+      <c r="H40">
+        <v>7000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41">
+        <v>12868</v>
+      </c>
+      <c r="C41" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41">
+        <v>20000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>343</v>
+      </c>
+      <c r="F41">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>344</v>
+      </c>
+      <c r="H41">
+        <v>7000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s">
+        <v>347</v>
+      </c>
+      <c r="L41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42">
+        <v>12869</v>
+      </c>
+      <c r="C42" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42">
+        <v>20000</v>
+      </c>
+      <c r="E42" t="s">
+        <v>343</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>344</v>
+      </c>
+      <c r="H42">
+        <v>7000</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43">
+        <v>12870</v>
+      </c>
+      <c r="C43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43">
+        <v>20000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>356</v>
+      </c>
+      <c r="H43">
+        <v>7000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44">
+        <v>12871</v>
+      </c>
+      <c r="C44" t="s">
+        <v>355</v>
+      </c>
+      <c r="D44">
+        <v>20000</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>356</v>
+      </c>
+      <c r="H44">
+        <v>7000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>362</v>
+      </c>
+      <c r="B45">
+        <v>12872</v>
+      </c>
+      <c r="C45" t="s">
+        <v>355</v>
+      </c>
+      <c r="D45">
+        <v>20000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>356</v>
+      </c>
+      <c r="H45">
+        <v>7000</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46">
+        <v>12873</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46">
+        <v>20000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
+        <v>356</v>
+      </c>
+      <c r="H46">
+        <v>7000</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47">
+        <v>12874</v>
+      </c>
+      <c r="C47" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47">
+        <v>20000</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>39</v>
+      </c>
+      <c r="G47" t="s">
+        <v>356</v>
+      </c>
+      <c r="H47">
+        <v>7000</v>
+      </c>
+      <c r="I47" t="s">
+        <v>357</v>
+      </c>
+      <c r="J47" t="s">
+        <v>358</v>
+      </c>
+      <c r="K47" t="s">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>365</v>
+      </c>
+      <c r="B48">
+        <v>12875</v>
+      </c>
+      <c r="C48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48">
+        <v>20000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>356</v>
+      </c>
+      <c r="H48">
+        <v>7000</v>
+      </c>
+      <c r="I48" t="s">
+        <v>357</v>
+      </c>
+      <c r="J48" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49">
+        <v>12877</v>
+      </c>
+      <c r="C49" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49">
+        <v>20000</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>368</v>
+      </c>
+      <c r="H49">
+        <v>7000</v>
+      </c>
+      <c r="I49" t="s">
+        <v>369</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+      <c r="K49" t="s">
+        <v>371</v>
+      </c>
+      <c r="L49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>373</v>
+      </c>
+      <c r="B50">
+        <v>12878</v>
+      </c>
+      <c r="C50" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50">
+        <v>20000</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>368</v>
+      </c>
+      <c r="H50">
+        <v>7000</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51">
+        <v>12879</v>
+      </c>
+      <c r="C51" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51">
+        <v>20000</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>368</v>
+      </c>
+      <c r="H51">
+        <v>7000</v>
+      </c>
+      <c r="I51" t="s">
+        <v>369</v>
+      </c>
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+      <c r="K51" t="s">
+        <v>371</v>
+      </c>
+      <c r="L51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52">
+        <v>12880</v>
+      </c>
+      <c r="C52" t="s">
+        <v>367</v>
+      </c>
+      <c r="D52">
+        <v>20000</v>
+      </c>
+      <c r="E52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>368</v>
+      </c>
+      <c r="H52">
+        <v>7000</v>
+      </c>
+      <c r="I52" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" t="s">
+        <v>370</v>
+      </c>
+      <c r="K52" t="s">
+        <v>371</v>
+      </c>
+      <c r="L52" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53">
+        <v>12881</v>
+      </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53">
+        <v>20000</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s">
+        <v>368</v>
+      </c>
+      <c r="H53">
+        <v>7000</v>
+      </c>
+      <c r="I53" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" t="s">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54">
+        <v>12882</v>
+      </c>
+      <c r="C54" t="s">
+        <v>367</v>
+      </c>
+      <c r="D54">
+        <v>20000</v>
+      </c>
+      <c r="E54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s">
+        <v>368</v>
+      </c>
+      <c r="H54">
+        <v>7000</v>
+      </c>
+      <c r="I54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K54" t="s">
+        <v>371</v>
+      </c>
+      <c r="L54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Paris/Publicar.xlsx
+++ b/Paris/Publicar.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\Paris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC4C86-E7F8-41CC-857C-1F05BEAF9F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43843E92-9EF5-4E4F-9C84-1C532B060694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hombre Zapato" sheetId="6" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="7" r:id="rId2"/>
-    <sheet name="SandaliaMujer" sheetId="4" r:id="rId3"/>
-    <sheet name="Mujer Zapatilla" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="8" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="9" r:id="rId6"/>
+    <sheet name="SandaliaMujer" sheetId="4" r:id="rId2"/>
+    <sheet name="Mujer Zapatilla" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$E$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja3!$L$1:$L$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hombre Zapato'!$P$1:$P$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mujer Zapatilla'!$Q$1:$Q$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Mujer Zapatilla'!$Q$1:$Q$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="291">
   <si>
     <t>36</t>
   </si>
@@ -735,192 +733,18 @@
     <t>12753</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Vestuario &lt; Mujer &lt; Zapatos mujer &lt; Zapatos de Fiesta</t>
-  </si>
-  <si>
-    <t>11176</t>
-  </si>
-  <si>
-    <t>11177</t>
-  </si>
-  <si>
-    <t>11178</t>
-  </si>
-  <si>
-    <t>11179</t>
-  </si>
-  <si>
-    <t>11180</t>
-  </si>
-  <si>
-    <t>11181</t>
-  </si>
-  <si>
-    <t>11201</t>
-  </si>
-  <si>
-    <t>11202</t>
-  </si>
-  <si>
-    <t>11203</t>
-  </si>
-  <si>
-    <t>11204</t>
-  </si>
-  <si>
-    <t>11205</t>
-  </si>
-  <si>
-    <t>11206</t>
-  </si>
-  <si>
-    <t>11800</t>
-  </si>
-  <si>
-    <t>11801</t>
-  </si>
-  <si>
-    <t>11802</t>
-  </si>
-  <si>
-    <t>11803</t>
-  </si>
-  <si>
-    <t>11804</t>
-  </si>
-  <si>
-    <t>11805</t>
-  </si>
-  <si>
-    <t>Zapato Rosado de Mujer Taco Alto</t>
-  </si>
-  <si>
-    <t>Zapato Rojo de Mujer Taco Alto</t>
-  </si>
-  <si>
-    <t>Zapato Dorado de Mujer Taco Alto</t>
-  </si>
-  <si>
-    <t>Dorado</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Nude-1.jpghttps://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Nude-2.jpghttps://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Nude-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Rojo-1.jpghttps://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Rojo-2.jpghttps://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Rojo-3.jpghttps://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Rojo-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Dorado-1.jpghttps://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Dorado-2.jpghttps://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Dorado-3.jpghttps://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatos%20Mujer/6066Dorado-4.jpg</t>
-  </si>
-  <si>
-    <t>Deportes &lt; Zapatillas &lt; Zapatillas mujer &lt; Zapatillas Outdoor</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/8568Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/8568Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/8568Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/8568Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/QM2122GRIS-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/QM2122GRIS-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/QM2122GRIS-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/QM2122GRIS-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/QM2123AZUL-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/QM2123AZUL-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/QM2123AZUL-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/QM2123AZUL-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/PG016-5-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/PG016-5-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/PG016-5-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/PG016-5-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/PG463Rosado-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/PG463Rosado-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/PG463Rosado-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/PG463Rosado-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/7-J239Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/7-J239Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/7-J239Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/7-J239Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/7-J240Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/7-J240Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/7-J240Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/7-J240Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/889Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/889Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/889Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/889Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/2109Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/2109Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/2109Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/Zapatillas%20Mujer/2109Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12827_088ef7e7</t>
-  </si>
-  <si>
     <t>Zapato de Mujer 2D7H-1A Rosado</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ARosado-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12828_92b75b72</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12829_12a50d56</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12830_2a275465</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12831_2a229070</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12832_a9391422</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12833_2e213091</t>
-  </si>
-  <si>
     <t>Zapato de Mujer 2D7H-1A Blanco</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/2D7H-1ABlanco-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12834_da71e905</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12835_34a5cc11</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12836_e94e7c4d</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12837_48d33cb3</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12838_aa1b5d80</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12840_ceea7dc1</t>
-  </si>
-  <si>
     <t>Sandalias de Mujer 12363-9 Camel</t>
   </si>
   <si>
@@ -930,144 +754,24 @@
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/12363-9%20Camel-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12841_5b09d943</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12842_05a8baea</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12843_890160f7</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12844_c04aecc2</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12845_12bc16e2</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12846_1cbe6ac7</t>
-  </si>
-  <si>
     <t>Zapato de Mujer UU675 Negro</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/UU675Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12847_e82475d5</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12848_606672e6</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12849_25ad8990</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12850_77548d42</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12851_298602b2</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12852_fae91863</t>
-  </si>
-  <si>
     <t>Zapato de Mujer KV059 Negro</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/KV059Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12853_57b69c4f</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12854_00a91a9e</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12855_5848a8cc</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12856_34f9de04</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12857_d57f2e5f</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12858_bcabc6f0</t>
-  </si>
-  <si>
     <t>Zapato de Mujer Panchita YH-23 Negro</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/YH23Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12859_52bdb8d3</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12860_aa8165ff</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12861_84a14bca</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12862_0d1b29f6</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12863_3f2cbdcb</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12864_2fc00e30</t>
-  </si>
-  <si>
     <t>Zapato de Mujer Panchita 1212-3 Rojo</t>
   </si>
   <si>
@@ -1077,103 +781,136 @@
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/1212-3Rojo-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12865_4bcdf726</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12866_f7279ea7</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12867_0cc5c8e2</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12868_964c73cb</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12869_fb6a1a4d</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12870_a065debd</t>
-  </si>
-  <si>
     <t>Sandalias de Mujer HZ02 Negro</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/HZ02Negro-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12871_26f3e5b2</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12872_d68443d1</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12873_846745b3</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12874_a52ee63e</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12875_26c9ba9a</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12877_970bd5ba</t>
-  </si>
-  <si>
     <t>Zapato de Mujer 0630-10 Rojo</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-4.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosMujer/0630-10Rojo-4.jpg</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12878_94c837f9</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12879_b1f22086</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12880_c8759629</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12881_b3e94d95</t>
-  </si>
-  <si>
-    <t>__export__.product_product_12882_322e4324</t>
+    <t>Zapatos de Hombre 1301-4 Marron</t>
+  </si>
+  <si>
+    <t>Zapatos Casual de Hombre 8503-8 Negro</t>
+  </si>
+  <si>
+    <t>Sandalias de Mujer UU678 Blanco</t>
+  </si>
+  <si>
+    <t>Sandalias de Mujer A68118 Negro</t>
+  </si>
+  <si>
+    <t>Sandalias de Mujer M220 Negro</t>
+  </si>
+  <si>
+    <t>12889</t>
+  </si>
+  <si>
+    <t>12890</t>
+  </si>
+  <si>
+    <t>12891</t>
+  </si>
+  <si>
+    <t>12892</t>
+  </si>
+  <si>
+    <t>12893</t>
+  </si>
+  <si>
+    <t>12894</t>
+  </si>
+  <si>
+    <t>12895</t>
+  </si>
+  <si>
+    <t>12896</t>
+  </si>
+  <si>
+    <t>12897</t>
+  </si>
+  <si>
+    <t>12898</t>
+  </si>
+  <si>
+    <t>12899</t>
+  </si>
+  <si>
+    <t>12900</t>
+  </si>
+  <si>
+    <t>12901</t>
+  </si>
+  <si>
+    <t>12902</t>
+  </si>
+  <si>
+    <t>12903</t>
+  </si>
+  <si>
+    <t>12904</t>
+  </si>
+  <si>
+    <t>12905</t>
+  </si>
+  <si>
+    <t>12906</t>
+  </si>
+  <si>
+    <t>12913</t>
+  </si>
+  <si>
+    <t>12914</t>
+  </si>
+  <si>
+    <t>12915</t>
+  </si>
+  <si>
+    <t>12916</t>
+  </si>
+  <si>
+    <t>12917</t>
+  </si>
+  <si>
+    <t>12918</t>
+  </si>
+  <si>
+    <t>12919</t>
+  </si>
+  <si>
+    <t>12920</t>
+  </si>
+  <si>
+    <t>12921</t>
+  </si>
+  <si>
+    <t>12922</t>
+  </si>
+  <si>
+    <t>12923</t>
+  </si>
+  <si>
+    <t>12924</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/M220Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/M220Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/M220Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/M220Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/A68118Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/A68118Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/A68118Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/A68118Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/UU678Blanco-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/UU678Blanco-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/UU678Blanco-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/SandaliasMujer2022/UU678Blanco-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosHombre2022/8503-8Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosHombre2022/8503-8Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosHombre2022/8503-8Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosHombre2022/8503-8Negro-4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosHombre2022/1301-4Marron-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosHombre2022/1301-4Marron-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosHombre2022/1301-4Marron-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2022/ZapatosHombre2022/1301-4Marron-4.jpg</t>
   </si>
 </sst>
 </file>
@@ -1189,12 +926,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1209,13 +952,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1561,8 +1311,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:AB6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,19 +4386,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D45456-0FAB-4EF0-81A1-48987B376C0A}">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F429730-05DF-459B-9AE7-98E1356C7767}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:K6"/>
@@ -4898,13 +4635,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90F8BBB-C46C-4860-8424-DAC4D83FDD92}">
   <sheetPr codeName="Hoja5" filterMode="1"/>
   <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L61" sqref="L1:AB61"/>
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9350,2925 +9087,3772 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF1B408-7277-4F29-AC24-CE17BB4949DB}">
-  <sheetPr codeName="Hoja7" filterMode="1"/>
-  <dimension ref="A2:Q32"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945ECBA5-D59E-4CC3-BE3F-272716ADD57A}">
+  <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:Q32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1">
+        <v>26000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1">
+        <v>12827</v>
+      </c>
+      <c r="E1">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1">
+        <v>13500</v>
+      </c>
+      <c r="H1" t="str">
+        <f>A1</f>
+        <v>Zapato de Mujer 2D7H-1A Rosado</v>
+      </c>
+      <c r="I1">
+        <f t="shared" ref="I1:K1" si="0">B1</f>
+        <v>26000</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>Rosado</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>12827</v>
+      </c>
+      <c r="L1">
+        <f>E1</f>
+        <v>35</v>
+      </c>
+      <c r="M1">
+        <f>D2</f>
+        <v>12828</v>
+      </c>
+      <c r="N1">
+        <f>E2</f>
+        <v>36</v>
+      </c>
+      <c r="O1">
+        <f>D3</f>
+        <v>12829</v>
+      </c>
+      <c r="P1">
+        <f>E3</f>
+        <v>37</v>
+      </c>
+      <c r="Q1">
+        <f>D4</f>
+        <v>12830</v>
+      </c>
+      <c r="R1">
+        <f>E4</f>
+        <v>38</v>
+      </c>
+      <c r="S1">
+        <f>D5</f>
+        <v>12831</v>
+      </c>
+      <c r="T1">
+        <f>E5</f>
+        <v>39</v>
+      </c>
+      <c r="U1">
+        <f>D6</f>
+        <v>12832</v>
+      </c>
+      <c r="V1">
+        <f>E6</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2">
+        <v>26000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>12828</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2">
+        <v>13500</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3">
+        <v>26000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3">
+        <v>12829</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3">
+        <v>13500</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4">
+        <v>26000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <v>12830</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4">
+        <v>13500</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5">
+        <v>26000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>12831</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5">
+        <v>13500</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6">
+        <v>26000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>12832</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>232</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6">
+        <v>13500</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7">
+        <v>26000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>12833</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7">
+        <v>13500</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ref="H7" si="1">A7</f>
+        <v>Zapato de Mujer 2D7H-1A Blanco</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7" si="2">B7</f>
+        <v>26000</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7" si="3">C7</f>
+        <v>Blanco</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7" si="4">D7</f>
+        <v>12833</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="5">E7</f>
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7" si="6">D8</f>
+        <v>12834</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7" si="7">E8</f>
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:P7" si="8">D9</f>
+        <v>12835</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:R7" si="9">D10</f>
+        <v>12836</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:T7" si="10">D11</f>
+        <v>12837</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:V7" si="11">D12</f>
+        <v>12838</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8">
+        <v>26000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>12834</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8">
+        <v>13500</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9">
+        <v>26000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9">
+        <v>12835</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9">
+        <v>13500</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10">
+        <v>26000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10">
+        <v>12836</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10">
+        <v>13500</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11">
+        <v>26000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>12837</v>
+      </c>
+      <c r="E11">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11">
+        <v>13500</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12">
+        <v>26000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12">
+        <v>12838</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12">
+        <v>13500</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13">
+        <v>20000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13">
+        <v>12840</v>
+      </c>
+      <c r="E13">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13">
+        <v>10000</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13" si="12">A13</f>
+        <v>Sandalias de Mujer 12363-9 Camel</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13" si="13">B13</f>
+        <v>20000</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13" si="14">C13</f>
+        <v>camel</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="15">D13</f>
+        <v>12840</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="16">E13</f>
+        <v>36</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13" si="17">D14</f>
+        <v>12841</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="18">E14</f>
+        <v>37</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:P13" si="19">D15</f>
+        <v>12842</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:R13" si="20">D16</f>
+        <v>12843</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:T13" si="21">D17</f>
+        <v>12844</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:V13" si="22">D18</f>
+        <v>12845</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="22"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14">
+        <v>20000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14">
+        <v>12841</v>
+      </c>
+      <c r="E14">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15">
+        <v>20000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15">
+        <v>12842</v>
+      </c>
+      <c r="E15">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16">
+        <v>20000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16">
+        <v>12843</v>
+      </c>
+      <c r="E16">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17">
+        <v>20000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17">
+        <v>12844</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18">
+        <v>20000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18">
+        <v>12845</v>
+      </c>
+      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19">
+        <v>20000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>12846</v>
+      </c>
+      <c r="E19">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19">
+        <v>7500</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ref="H19" si="23">A19</f>
+        <v>Zapato de Mujer UU675 Negro</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19" si="24">B19</f>
+        <v>20000</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19" si="25">C19</f>
+        <v>Negro</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19" si="26">D19</f>
+        <v>12846</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19" si="27">E19</f>
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19" si="28">D20</f>
+        <v>12847</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19" si="29">E20</f>
+        <v>36</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:P19" si="30">D21</f>
+        <v>12848</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="30"/>
+        <v>37</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:R19" si="31">D22</f>
+        <v>12849</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="31"/>
+        <v>38</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:T19" si="32">D23</f>
+        <v>12850</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="32"/>
+        <v>39</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:V19" si="33">D24</f>
+        <v>12851</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="33"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20">
+        <v>20000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>12847</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20">
+        <v>7500</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21">
+        <v>20000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>12848</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21">
+        <v>7500</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22">
+        <v>20000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>12849</v>
+      </c>
+      <c r="E22">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22">
+        <v>7500</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23">
+        <v>20000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>12850</v>
+      </c>
+      <c r="E23">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23">
+        <v>7500</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24">
+        <v>20000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>12851</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24">
+        <v>7500</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25">
+        <v>20000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>12852</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25">
+        <v>7500</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" ref="H25" si="34">A25</f>
+        <v>Zapato de Mujer KV059 Negro</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="35">B25</f>
+        <v>20000</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ref="J25" si="36">C25</f>
+        <v>Negro</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="37">D25</f>
+        <v>12852</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25" si="38">E25</f>
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25" si="39">D26</f>
+        <v>12853</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25" si="40">E26</f>
+        <v>36</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:P25" si="41">D27</f>
+        <v>12854</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="41"/>
+        <v>37</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:R25" si="42">D28</f>
+        <v>12855</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="42"/>
+        <v>38</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:T25" si="43">D29</f>
+        <v>12856</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="43"/>
+        <v>39</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:V25" si="44">D30</f>
+        <v>12857</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="44"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <v>20000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>12853</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26">
+        <v>7500</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27">
+        <v>20000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>12854</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27">
+        <v>7500</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28">
+        <v>20000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>12855</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28">
+        <v>7500</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29">
+        <v>20000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>12856</v>
+      </c>
+      <c r="E29">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29">
+        <v>7500</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30">
+        <v>20000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>12857</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30">
+        <v>7500</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31">
+        <v>20000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>12858</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31">
+        <v>7500</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" ref="H31" si="45">A31</f>
+        <v>Zapato de Mujer Panchita YH-23 Negro</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31" si="46">B31</f>
+        <v>20000</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ref="J31" si="47">C31</f>
+        <v>Negro</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31" si="48">D31</f>
+        <v>12858</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31" si="49">E31</f>
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31" si="50">D32</f>
+        <v>12859</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31" si="51">E32</f>
+        <v>36</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:P31" si="52">D33</f>
+        <v>12860</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="52"/>
+        <v>37</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:R31" si="53">D34</f>
+        <v>12861</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="53"/>
+        <v>38</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ref="S31:T31" si="54">D35</f>
+        <v>12862</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="54"/>
+        <v>39</v>
+      </c>
+      <c r="U31">
+        <f t="shared" ref="U31:V31" si="55">D36</f>
+        <v>12863</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="55"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32">
+        <v>20000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>12859</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32">
+        <v>7500</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33">
+        <v>20000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>12860</v>
+      </c>
+      <c r="E33">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33">
+        <v>7500</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34">
+        <v>20000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>12861</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34">
+        <v>7500</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35">
+        <v>20000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>12862</v>
+      </c>
+      <c r="E35">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35">
+        <v>7500</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36">
+        <v>20000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>12863</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>243</v>
+      </c>
+      <c r="G36">
+        <v>7500</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37">
+        <v>20000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37">
+        <v>12864</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37">
+        <v>7000</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" ref="H37" si="56">A37</f>
+        <v>Zapato de Mujer Panchita 1212-3 Rojo</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37" si="57">B37</f>
+        <v>20000</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" ref="J37" si="58">C37</f>
+        <v>Rojo:</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37" si="59">D37</f>
+        <v>12864</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ref="L37" si="60">E37</f>
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37" si="61">D38</f>
+        <v>12865</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37" si="62">E38</f>
+        <v>36</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37:P37" si="63">D39</f>
+        <v>12866</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="63"/>
+        <v>37</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37:R37" si="64">D40</f>
+        <v>12867</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="64"/>
+        <v>38</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ref="S37:T37" si="65">D41</f>
+        <v>12868</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="65"/>
+        <v>39</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ref="U37:V37" si="66">D42</f>
+        <v>12869</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="66"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38">
+        <v>20000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38">
+        <v>12865</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38">
+        <v>7000</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39">
+        <v>20000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39">
+        <v>12866</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39">
+        <v>7000</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40">
+        <v>20000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40">
+        <v>12867</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40">
+        <v>7000</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41">
+        <v>20000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41">
+        <v>12868</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41">
+        <v>7000</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <v>20000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42">
+        <v>12869</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42">
+        <v>7000</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43">
+        <v>20000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>12870</v>
+      </c>
+      <c r="E43">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43">
+        <v>7000</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" ref="H43" si="67">A43</f>
+        <v>Sandalias de Mujer HZ02 Negro</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43" si="68">B43</f>
+        <v>20000</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" ref="J43" si="69">C43</f>
+        <v>Negro</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43" si="70">D43</f>
+        <v>12870</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43" si="71">E43</f>
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43" si="72">D44</f>
+        <v>12871</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43" si="73">E44</f>
+        <v>36</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43:P43" si="74">D45</f>
+        <v>12872</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="74"/>
+        <v>37</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43:R43" si="75">D46</f>
+        <v>12873</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="75"/>
+        <v>38</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ref="S43:T43" si="76">D47</f>
+        <v>12874</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="76"/>
+        <v>39</v>
+      </c>
+      <c r="U43">
+        <f t="shared" ref="U43:V43" si="77">D48</f>
+        <v>12875</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="77"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44">
+        <v>20000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>12871</v>
+      </c>
+      <c r="E44">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44">
+        <v>7000</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45">
+        <v>20000</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>12872</v>
+      </c>
+      <c r="E45">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45">
+        <v>7000</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46">
+        <v>20000</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>12873</v>
+      </c>
+      <c r="E46">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46">
+        <v>7000</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47">
+        <v>20000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>12874</v>
+      </c>
+      <c r="E47">
+        <v>39</v>
+      </c>
+      <c r="F47" t="s">
+        <v>248</v>
+      </c>
+      <c r="G47">
+        <v>7000</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48">
+        <v>20000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>12875</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48">
+        <v>7000</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49">
+        <v>20000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49">
+        <v>12877</v>
+      </c>
+      <c r="E49">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49">
+        <v>7000</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" ref="H49" si="78">A49</f>
+        <v>Zapato de Mujer 0630-10 Rojo</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49" si="79">B49</f>
+        <v>20000</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" ref="J49" si="80">C49</f>
+        <v>Rojo</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49" si="81">D49</f>
+        <v>12877</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49" si="82">E49</f>
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ref="M49" si="83">D50</f>
+        <v>12878</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ref="N49" si="84">E50</f>
+        <v>36</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ref="O49:P49" si="85">D51</f>
+        <v>12879</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="85"/>
+        <v>37</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ref="Q49:R49" si="86">D52</f>
+        <v>12880</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="86"/>
+        <v>38</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ref="S49:T49" si="87">D53</f>
+        <v>12881</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="87"/>
+        <v>39</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ref="U49:V49" si="88">D54</f>
+        <v>12882</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="88"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50">
+        <v>20000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50">
+        <v>12878</v>
+      </c>
+      <c r="E50">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50">
+        <v>7000</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51">
+        <v>20000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51">
+        <v>12879</v>
+      </c>
+      <c r="E51">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51">
+        <v>7000</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52">
+        <v>20000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52">
+        <v>12880</v>
+      </c>
+      <c r="E52">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52">
+        <v>7000</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53">
+        <v>20000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53">
+        <v>12881</v>
+      </c>
+      <c r="E53">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53">
+        <v>7000</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54">
+        <v>20000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54">
+        <v>12882</v>
+      </c>
+      <c r="E54">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54">
+        <v>7000</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+    </row>
+    <row r="55" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="5">
+        <v>35</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ref="H55" si="89">A55</f>
+        <v>Sandalias de Mujer M220 Negro</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55" si="90">B55</f>
+        <v>11500</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" ref="J55" si="91">C55</f>
+        <v>Negro</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" ref="K55" si="92">D55</f>
+        <v>12889</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ref="L55" si="93">E55</f>
+        <v>35</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" ref="M55" si="94">D56</f>
+        <v>12890</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ref="N55" si="95">E56</f>
+        <v>36</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" ref="O55:P55" si="96">D57</f>
+        <v>12891</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="96"/>
+        <v>37</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55:R55" si="97">D58</f>
+        <v>12892</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="97"/>
+        <v>38</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" ref="S55:T55" si="98">D59</f>
+        <v>12893</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="98"/>
+        <v>39</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" ref="U55:V55" si="99">D60</f>
+        <v>12894</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="99"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" s="5">
+        <v>36</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+    </row>
+    <row r="57" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" s="5">
+        <v>37</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+    </row>
+    <row r="58" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" s="5">
+        <v>38</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="5">
+        <v>39</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+    </row>
+    <row r="60" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="5">
+        <v>40</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+    </row>
+    <row r="61" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61" s="5">
+        <v>35</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" ref="H61" si="100">A61</f>
+        <v>Sandalias de Mujer A68118 Negro</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ref="I61" si="101">B61</f>
+        <v>10000</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" ref="J61" si="102">C61</f>
+        <v>Negro</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" ref="K61" si="103">D61</f>
+        <v>12895</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ref="L61" si="104">E61</f>
+        <v>35</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" ref="M61" si="105">D62</f>
+        <v>12896</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ref="N61" si="106">E62</f>
+        <v>36</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" ref="O61:P61" si="107">D63</f>
+        <v>12897</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="107"/>
+        <v>37</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" ref="Q61:R61" si="108">D64</f>
+        <v>12898</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="108"/>
+        <v>38</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" ref="S61:T61" si="109">D65</f>
+        <v>12899</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="109"/>
+        <v>39</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" ref="U61:V61" si="110">D66</f>
+        <v>12900</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="110"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="5">
+        <v>36</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+    </row>
+    <row r="63" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="5">
+        <v>37</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+    </row>
+    <row r="64" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="5">
+        <v>38</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+    </row>
+    <row r="65" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="5">
+        <v>39</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+    </row>
+    <row r="66" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E66" s="5">
+        <v>40</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+    </row>
+    <row r="67" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E67" s="5">
+        <v>35</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67" si="111">A67</f>
+        <v>Sandalias de Mujer UU678 Blanco</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67" si="112">B67</f>
+        <v>10000</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67" si="113">C67</f>
+        <v>Blanco</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67" si="114">D67</f>
+        <v>12901</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67" si="115">E67</f>
+        <v>35</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67" si="116">D68</f>
+        <v>12902</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67" si="117">E68</f>
+        <v>36</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:P67" si="118">D69</f>
+        <v>12903</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="118"/>
+        <v>37</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:R67" si="119">D70</f>
+        <v>12904</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="119"/>
+        <v>38</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" ref="S67:T67" si="120">D71</f>
+        <v>12905</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="120"/>
+        <v>39</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" ref="U67:V67" si="121">D72</f>
+        <v>12906</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="121"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="5">
+        <v>36</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+    </row>
+    <row r="69" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="5">
+        <v>37</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+    </row>
+    <row r="70" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E70" s="5">
+        <v>38</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+    </row>
+    <row r="71" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="5">
+        <v>39</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+    </row>
+    <row r="72" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E72" s="5">
+        <v>40</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+    </row>
+    <row r="73" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="5">
+        <v>13000</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="5">
+        <v>39</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" ref="H73" si="122">A73</f>
+        <v>Zapatos Casual de Hombre 8503-8 Negro</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73" si="123">B73</f>
+        <v>13000</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" ref="J73" si="124">C73</f>
+        <v>Negro</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" ref="K73" si="125">D73</f>
+        <v>12913</v>
+      </c>
+      <c r="L73">
+        <f t="shared" ref="L73" si="126">E73</f>
+        <v>39</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" ref="M73" si="127">D74</f>
+        <v>12914</v>
+      </c>
+      <c r="N73">
+        <f t="shared" ref="N73" si="128">E74</f>
+        <v>40</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" ref="O73:P73" si="129">D75</f>
+        <v>12915</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="129"/>
+        <v>41</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" ref="Q73:R73" si="130">D76</f>
+        <v>12916</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="130"/>
+        <v>42</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" ref="S73:T73" si="131">D77</f>
+        <v>12917</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="131"/>
+        <v>43</v>
+      </c>
+      <c r="U73" t="str">
+        <f t="shared" ref="U73:V73" si="132">D78</f>
+        <v>12918</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="132"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="5">
+        <v>13000</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E74" s="5">
+        <v>40</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+    </row>
+    <row r="75" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" s="5">
+        <v>13000</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="5">
+        <v>41</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+    </row>
+    <row r="76" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="5">
+        <v>13000</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E76" s="5">
+        <v>42</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+    </row>
+    <row r="77" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" s="5">
+        <v>13000</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" s="5">
+        <v>43</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+    </row>
+    <row r="78" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="5">
+        <v>13000</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E78" s="5">
+        <v>44</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+    </row>
+    <row r="79" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>236</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>238</v>
-      </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>241</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>242</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>243</v>
-      </c>
-      <c r="N12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" t="s">
-        <v>244</v>
-      </c>
-      <c r="P12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>246</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>247</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>248</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" t="s">
-        <v>249</v>
-      </c>
-      <c r="N18" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" t="s">
-        <v>250</v>
-      </c>
-      <c r="P18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="B79" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E79" s="5">
         <v>39</v>
       </c>
-      <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="F79" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" ref="H79" si="133">A79</f>
+        <v>Zapatos de Hombre 1301-4 Marron</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79" si="134">B79</f>
+        <v>10500</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" ref="J79" si="135">C79</f>
+        <v>Marron</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" ref="K79" si="136">D79</f>
+        <v>12919</v>
+      </c>
+      <c r="L79">
+        <f t="shared" ref="L79" si="137">E79</f>
+        <v>39</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" ref="M79" si="138">D80</f>
+        <v>12920</v>
+      </c>
+      <c r="N79">
+        <f t="shared" ref="N79" si="139">E80</f>
         <v>40</v>
       </c>
-      <c r="L24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="O79" t="str">
+        <f t="shared" ref="O79:P79" si="140">D81</f>
+        <v>12921</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="140"/>
         <v>41</v>
       </c>
-      <c r="N24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="Q79" t="str">
+        <f t="shared" ref="Q79:R79" si="141">D82</f>
+        <v>12922</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="141"/>
         <v>42</v>
       </c>
-      <c r="P24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>258</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="S79" t="str">
+        <f t="shared" ref="S79:T79" si="142">D83</f>
+        <v>12923</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="142"/>
         <v>43</v>
       </c>
-      <c r="C25" t="s">
+      <c r="U79" t="str">
+        <f t="shared" ref="U79:V79" si="143">D84</f>
+        <v>12924</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="143"/>
         <v>44</v>
       </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
+    </row>
+    <row r="80" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B80" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E80" s="5">
+        <v>40</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+    </row>
+    <row r="81" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E81" s="5">
+        <v>41</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+    </row>
+    <row r="82" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" s="5">
+        <v>42</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+    </row>
+    <row r="83" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E83" s="5">
+        <v>43</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+    </row>
+    <row r="84" spans="1:22" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" s="5">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" t="s">
-        <v>58</v>
-      </c>
-      <c r="N26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>258</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" t="s">
-        <v>115</v>
-      </c>
-      <c r="N28" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>258</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>209</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
-        <v>137</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
-        <v>138</v>
-      </c>
-      <c r="N29" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P29" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" t="s">
-        <v>149</v>
-      </c>
-      <c r="N30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O30" t="s">
-        <v>150</v>
-      </c>
-      <c r="P30" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>258</v>
-      </c>
-      <c r="B31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>158</v>
-      </c>
-      <c r="J31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" t="s">
-        <v>159</v>
-      </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" t="s">
-        <v>160</v>
-      </c>
-      <c r="N31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31" t="s">
-        <v>161</v>
-      </c>
-      <c r="P31" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" t="s">
-        <v>171</v>
-      </c>
-      <c r="N32" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" t="s">
-        <v>172</v>
-      </c>
-      <c r="P32" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>267</v>
-      </c>
+      <c r="F84" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E18" xr:uid="{8BF1B408-7277-4F29-AC24-CE17BB4949DB}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945ECBA5-D59E-4CC3-BE3F-272716ADD57A}">
-  <dimension ref="A1:L54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1">
-        <v>12827</v>
-      </c>
-      <c r="C1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1">
-        <v>26000</v>
-      </c>
-      <c r="E1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H1">
-        <v>13500</v>
-      </c>
-      <c r="I1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2">
-        <v>12828</v>
-      </c>
-      <c r="C2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2">
-        <v>26000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2">
-        <v>13500</v>
-      </c>
-      <c r="I2" t="s">
-        <v>271</v>
-      </c>
-      <c r="J2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3">
-        <v>12829</v>
-      </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3">
-        <v>26000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3">
-        <v>13500</v>
-      </c>
-      <c r="I3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J3" t="s">
-        <v>272</v>
-      </c>
-      <c r="K3" t="s">
-        <v>273</v>
-      </c>
-      <c r="L3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4">
-        <v>12830</v>
-      </c>
-      <c r="C4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4">
-        <v>26000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4">
-        <v>13500</v>
-      </c>
-      <c r="I4" t="s">
-        <v>271</v>
-      </c>
-      <c r="J4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5">
-        <v>12831</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5">
-        <v>26000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>270</v>
-      </c>
-      <c r="H5">
-        <v>13500</v>
-      </c>
-      <c r="I5" t="s">
-        <v>271</v>
-      </c>
-      <c r="J5" t="s">
-        <v>272</v>
-      </c>
-      <c r="K5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6">
-        <v>12832</v>
-      </c>
-      <c r="C6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6">
-        <v>26000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6">
-        <v>13500</v>
-      </c>
-      <c r="I6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J6" t="s">
-        <v>272</v>
-      </c>
-      <c r="K6" t="s">
-        <v>273</v>
-      </c>
-      <c r="L6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7">
-        <v>12833</v>
-      </c>
-      <c r="C7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7">
-        <v>26000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H7">
-        <v>13500</v>
-      </c>
-      <c r="I7" t="s">
-        <v>283</v>
-      </c>
-      <c r="J7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8">
-        <v>12834</v>
-      </c>
-      <c r="C8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D8">
-        <v>26000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8">
-        <v>13500</v>
-      </c>
-      <c r="I8" t="s">
-        <v>283</v>
-      </c>
-      <c r="J8" t="s">
-        <v>284</v>
-      </c>
-      <c r="K8" t="s">
-        <v>285</v>
-      </c>
-      <c r="L8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9">
-        <v>12835</v>
-      </c>
-      <c r="C9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9">
-        <v>26000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H9">
-        <v>13500</v>
-      </c>
-      <c r="I9" t="s">
-        <v>283</v>
-      </c>
-      <c r="J9" t="s">
-        <v>284</v>
-      </c>
-      <c r="K9" t="s">
-        <v>285</v>
-      </c>
-      <c r="L9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10">
-        <v>12836</v>
-      </c>
-      <c r="C10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10">
-        <v>26000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H10">
-        <v>13500</v>
-      </c>
-      <c r="I10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K10" t="s">
-        <v>285</v>
-      </c>
-      <c r="L10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11">
-        <v>12837</v>
-      </c>
-      <c r="C11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11">
-        <v>26000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11">
-        <v>13500</v>
-      </c>
-      <c r="I11" t="s">
-        <v>283</v>
-      </c>
-      <c r="J11" t="s">
-        <v>284</v>
-      </c>
-      <c r="K11" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12">
-        <v>12838</v>
-      </c>
-      <c r="C12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12">
-        <v>26000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>282</v>
-      </c>
-      <c r="H12">
-        <v>13500</v>
-      </c>
-      <c r="I12" t="s">
-        <v>283</v>
-      </c>
-      <c r="J12" t="s">
-        <v>284</v>
-      </c>
-      <c r="K12" t="s">
-        <v>285</v>
-      </c>
-      <c r="L12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13">
-        <v>12840</v>
-      </c>
-      <c r="C13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13">
-        <v>20000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>295</v>
-      </c>
-      <c r="H13">
-        <v>10000</v>
-      </c>
-      <c r="I13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J13" t="s">
-        <v>297</v>
-      </c>
-      <c r="K13" t="s">
-        <v>298</v>
-      </c>
-      <c r="L13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14">
-        <v>12841</v>
-      </c>
-      <c r="C14" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14">
-        <v>20000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>295</v>
-      </c>
-      <c r="H14">
-        <v>10000</v>
-      </c>
-      <c r="I14" t="s">
-        <v>296</v>
-      </c>
-      <c r="J14" t="s">
-        <v>297</v>
-      </c>
-      <c r="K14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B15">
-        <v>12842</v>
-      </c>
-      <c r="C15" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15">
-        <v>20000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>295</v>
-      </c>
-      <c r="H15">
-        <v>10000</v>
-      </c>
-      <c r="I15" t="s">
-        <v>296</v>
-      </c>
-      <c r="J15" t="s">
-        <v>297</v>
-      </c>
-      <c r="K15" t="s">
-        <v>298</v>
-      </c>
-      <c r="L15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16">
-        <v>12843</v>
-      </c>
-      <c r="C16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D16">
-        <v>20000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F16">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H16">
-        <v>10000</v>
-      </c>
-      <c r="I16" t="s">
-        <v>296</v>
-      </c>
-      <c r="J16" t="s">
-        <v>297</v>
-      </c>
-      <c r="K16" t="s">
-        <v>298</v>
-      </c>
-      <c r="L16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B17">
-        <v>12844</v>
-      </c>
-      <c r="C17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17">
-        <v>20000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>294</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>295</v>
-      </c>
-      <c r="H17">
-        <v>10000</v>
-      </c>
-      <c r="I17" t="s">
-        <v>296</v>
-      </c>
-      <c r="J17" t="s">
-        <v>297</v>
-      </c>
-      <c r="K17" t="s">
-        <v>298</v>
-      </c>
-      <c r="L17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18">
-        <v>12845</v>
-      </c>
-      <c r="C18" t="s">
-        <v>293</v>
-      </c>
-      <c r="D18">
-        <v>20000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>294</v>
-      </c>
-      <c r="F18">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>295</v>
-      </c>
-      <c r="H18">
-        <v>10000</v>
-      </c>
-      <c r="I18" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" t="s">
-        <v>297</v>
-      </c>
-      <c r="K18" t="s">
-        <v>298</v>
-      </c>
-      <c r="L18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>305</v>
-      </c>
-      <c r="B19">
-        <v>12846</v>
-      </c>
-      <c r="C19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19">
-        <v>20000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>307</v>
-      </c>
-      <c r="H19">
-        <v>7500</v>
-      </c>
-      <c r="I19" t="s">
-        <v>308</v>
-      </c>
-      <c r="J19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K19" t="s">
-        <v>310</v>
-      </c>
-      <c r="L19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B20">
-        <v>12847</v>
-      </c>
-      <c r="C20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20">
-        <v>20000</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>307</v>
-      </c>
-      <c r="H20">
-        <v>7500</v>
-      </c>
-      <c r="I20" t="s">
-        <v>308</v>
-      </c>
-      <c r="J20" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" t="s">
-        <v>310</v>
-      </c>
-      <c r="L20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>313</v>
-      </c>
-      <c r="B21">
-        <v>12848</v>
-      </c>
-      <c r="C21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21">
-        <v>20000</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>307</v>
-      </c>
-      <c r="H21">
-        <v>7500</v>
-      </c>
-      <c r="I21" t="s">
-        <v>308</v>
-      </c>
-      <c r="J21" t="s">
-        <v>309</v>
-      </c>
-      <c r="K21" t="s">
-        <v>310</v>
-      </c>
-      <c r="L21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>314</v>
-      </c>
-      <c r="B22">
-        <v>12849</v>
-      </c>
-      <c r="C22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D22">
-        <v>20000</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>307</v>
-      </c>
-      <c r="H22">
-        <v>7500</v>
-      </c>
-      <c r="I22" t="s">
-        <v>308</v>
-      </c>
-      <c r="J22" t="s">
-        <v>309</v>
-      </c>
-      <c r="K22" t="s">
-        <v>310</v>
-      </c>
-      <c r="L22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>315</v>
-      </c>
-      <c r="B23">
-        <v>12850</v>
-      </c>
-      <c r="C23" t="s">
-        <v>306</v>
-      </c>
-      <c r="D23">
-        <v>20000</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>307</v>
-      </c>
-      <c r="H23">
-        <v>7500</v>
-      </c>
-      <c r="I23" t="s">
-        <v>308</v>
-      </c>
-      <c r="J23" t="s">
-        <v>309</v>
-      </c>
-      <c r="K23" t="s">
-        <v>310</v>
-      </c>
-      <c r="L23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B24">
-        <v>12851</v>
-      </c>
-      <c r="C24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24">
-        <v>20000</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>307</v>
-      </c>
-      <c r="H24">
-        <v>7500</v>
-      </c>
-      <c r="I24" t="s">
-        <v>308</v>
-      </c>
-      <c r="J24" t="s">
-        <v>309</v>
-      </c>
-      <c r="K24" t="s">
-        <v>310</v>
-      </c>
-      <c r="L24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>317</v>
-      </c>
-      <c r="B25">
-        <v>12852</v>
-      </c>
-      <c r="C25" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25">
-        <v>20000</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>319</v>
-      </c>
-      <c r="H25">
-        <v>7500</v>
-      </c>
-      <c r="I25" t="s">
-        <v>320</v>
-      </c>
-      <c r="J25" t="s">
-        <v>321</v>
-      </c>
-      <c r="K25" t="s">
-        <v>322</v>
-      </c>
-      <c r="L25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26">
-        <v>12853</v>
-      </c>
-      <c r="C26" t="s">
-        <v>318</v>
-      </c>
-      <c r="D26">
-        <v>20000</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>319</v>
-      </c>
-      <c r="H26">
-        <v>7500</v>
-      </c>
-      <c r="I26" t="s">
-        <v>320</v>
-      </c>
-      <c r="J26" t="s">
-        <v>321</v>
-      </c>
-      <c r="K26" t="s">
-        <v>322</v>
-      </c>
-      <c r="L26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>325</v>
-      </c>
-      <c r="B27">
-        <v>12854</v>
-      </c>
-      <c r="C27" t="s">
-        <v>318</v>
-      </c>
-      <c r="D27">
-        <v>20000</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>319</v>
-      </c>
-      <c r="H27">
-        <v>7500</v>
-      </c>
-      <c r="I27" t="s">
-        <v>320</v>
-      </c>
-      <c r="J27" t="s">
-        <v>321</v>
-      </c>
-      <c r="K27" t="s">
-        <v>322</v>
-      </c>
-      <c r="L27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>326</v>
-      </c>
-      <c r="B28">
-        <v>12855</v>
-      </c>
-      <c r="C28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D28">
-        <v>20000</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s">
-        <v>319</v>
-      </c>
-      <c r="H28">
-        <v>7500</v>
-      </c>
-      <c r="I28" t="s">
-        <v>320</v>
-      </c>
-      <c r="J28" t="s">
-        <v>321</v>
-      </c>
-      <c r="K28" t="s">
-        <v>322</v>
-      </c>
-      <c r="L28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29">
-        <v>12856</v>
-      </c>
-      <c r="C29" t="s">
-        <v>318</v>
-      </c>
-      <c r="D29">
-        <v>20000</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>319</v>
-      </c>
-      <c r="H29">
-        <v>7500</v>
-      </c>
-      <c r="I29" t="s">
-        <v>320</v>
-      </c>
-      <c r="J29" t="s">
-        <v>321</v>
-      </c>
-      <c r="K29" t="s">
-        <v>322</v>
-      </c>
-      <c r="L29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B30">
-        <v>12857</v>
-      </c>
-      <c r="C30" t="s">
-        <v>318</v>
-      </c>
-      <c r="D30">
-        <v>20000</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s">
-        <v>319</v>
-      </c>
-      <c r="H30">
-        <v>7500</v>
-      </c>
-      <c r="I30" t="s">
-        <v>320</v>
-      </c>
-      <c r="J30" t="s">
-        <v>321</v>
-      </c>
-      <c r="K30" t="s">
-        <v>322</v>
-      </c>
-      <c r="L30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31">
-        <v>12858</v>
-      </c>
-      <c r="C31" t="s">
-        <v>330</v>
-      </c>
-      <c r="D31">
-        <v>20000</v>
-      </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>331</v>
-      </c>
-      <c r="H31">
-        <v>7500</v>
-      </c>
-      <c r="I31" t="s">
-        <v>332</v>
-      </c>
-      <c r="J31" t="s">
-        <v>333</v>
-      </c>
-      <c r="K31" t="s">
-        <v>334</v>
-      </c>
-      <c r="L31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>336</v>
-      </c>
-      <c r="B32">
-        <v>12859</v>
-      </c>
-      <c r="C32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D32">
-        <v>20000</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>331</v>
-      </c>
-      <c r="H32">
-        <v>7500</v>
-      </c>
-      <c r="I32" t="s">
-        <v>332</v>
-      </c>
-      <c r="J32" t="s">
-        <v>333</v>
-      </c>
-      <c r="K32" t="s">
-        <v>334</v>
-      </c>
-      <c r="L32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B33">
-        <v>12860</v>
-      </c>
-      <c r="C33" t="s">
-        <v>330</v>
-      </c>
-      <c r="D33">
-        <v>20000</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>331</v>
-      </c>
-      <c r="H33">
-        <v>7500</v>
-      </c>
-      <c r="I33" t="s">
-        <v>332</v>
-      </c>
-      <c r="J33" t="s">
-        <v>333</v>
-      </c>
-      <c r="K33" t="s">
-        <v>334</v>
-      </c>
-      <c r="L33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>338</v>
-      </c>
-      <c r="B34">
-        <v>12861</v>
-      </c>
-      <c r="C34" t="s">
-        <v>330</v>
-      </c>
-      <c r="D34">
-        <v>20000</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>331</v>
-      </c>
-      <c r="H34">
-        <v>7500</v>
-      </c>
-      <c r="I34" t="s">
-        <v>332</v>
-      </c>
-      <c r="J34" t="s">
-        <v>333</v>
-      </c>
-      <c r="K34" t="s">
-        <v>334</v>
-      </c>
-      <c r="L34" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>339</v>
-      </c>
-      <c r="B35">
-        <v>12862</v>
-      </c>
-      <c r="C35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D35">
-        <v>20000</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>331</v>
-      </c>
-      <c r="H35">
-        <v>7500</v>
-      </c>
-      <c r="I35" t="s">
-        <v>332</v>
-      </c>
-      <c r="J35" t="s">
-        <v>333</v>
-      </c>
-      <c r="K35" t="s">
-        <v>334</v>
-      </c>
-      <c r="L35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>340</v>
-      </c>
-      <c r="B36">
-        <v>12863</v>
-      </c>
-      <c r="C36" t="s">
-        <v>330</v>
-      </c>
-      <c r="D36">
-        <v>20000</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>331</v>
-      </c>
-      <c r="H36">
-        <v>7500</v>
-      </c>
-      <c r="I36" t="s">
-        <v>332</v>
-      </c>
-      <c r="J36" t="s">
-        <v>333</v>
-      </c>
-      <c r="K36" t="s">
-        <v>334</v>
-      </c>
-      <c r="L36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>341</v>
-      </c>
-      <c r="B37">
-        <v>12864</v>
-      </c>
-      <c r="C37" t="s">
-        <v>342</v>
-      </c>
-      <c r="D37">
-        <v>20000</v>
-      </c>
-      <c r="E37" t="s">
-        <v>343</v>
-      </c>
-      <c r="F37">
-        <v>35</v>
-      </c>
-      <c r="G37" t="s">
-        <v>344</v>
-      </c>
-      <c r="H37">
-        <v>7000</v>
-      </c>
-      <c r="I37" t="s">
-        <v>345</v>
-      </c>
-      <c r="J37" t="s">
-        <v>346</v>
-      </c>
-      <c r="K37" t="s">
-        <v>347</v>
-      </c>
-      <c r="L37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>349</v>
-      </c>
-      <c r="B38">
-        <v>12865</v>
-      </c>
-      <c r="C38" t="s">
-        <v>342</v>
-      </c>
-      <c r="D38">
-        <v>20000</v>
-      </c>
-      <c r="E38" t="s">
-        <v>343</v>
-      </c>
-      <c r="F38">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>344</v>
-      </c>
-      <c r="H38">
-        <v>7000</v>
-      </c>
-      <c r="I38" t="s">
-        <v>345</v>
-      </c>
-      <c r="J38" t="s">
-        <v>346</v>
-      </c>
-      <c r="K38" t="s">
-        <v>347</v>
-      </c>
-      <c r="L38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>350</v>
-      </c>
-      <c r="B39">
-        <v>12866</v>
-      </c>
-      <c r="C39" t="s">
-        <v>342</v>
-      </c>
-      <c r="D39">
-        <v>20000</v>
-      </c>
-      <c r="E39" t="s">
-        <v>343</v>
-      </c>
-      <c r="F39">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>344</v>
-      </c>
-      <c r="H39">
-        <v>7000</v>
-      </c>
-      <c r="I39" t="s">
-        <v>345</v>
-      </c>
-      <c r="J39" t="s">
-        <v>346</v>
-      </c>
-      <c r="K39" t="s">
-        <v>347</v>
-      </c>
-      <c r="L39" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>351</v>
-      </c>
-      <c r="B40">
-        <v>12867</v>
-      </c>
-      <c r="C40" t="s">
-        <v>342</v>
-      </c>
-      <c r="D40">
-        <v>20000</v>
-      </c>
-      <c r="E40" t="s">
-        <v>343</v>
-      </c>
-      <c r="F40">
-        <v>38</v>
-      </c>
-      <c r="G40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H40">
-        <v>7000</v>
-      </c>
-      <c r="I40" t="s">
-        <v>345</v>
-      </c>
-      <c r="J40" t="s">
-        <v>346</v>
-      </c>
-      <c r="K40" t="s">
-        <v>347</v>
-      </c>
-      <c r="L40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>352</v>
-      </c>
-      <c r="B41">
-        <v>12868</v>
-      </c>
-      <c r="C41" t="s">
-        <v>342</v>
-      </c>
-      <c r="D41">
-        <v>20000</v>
-      </c>
-      <c r="E41" t="s">
-        <v>343</v>
-      </c>
-      <c r="F41">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s">
-        <v>344</v>
-      </c>
-      <c r="H41">
-        <v>7000</v>
-      </c>
-      <c r="I41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J41" t="s">
-        <v>346</v>
-      </c>
-      <c r="K41" t="s">
-        <v>347</v>
-      </c>
-      <c r="L41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>353</v>
-      </c>
-      <c r="B42">
-        <v>12869</v>
-      </c>
-      <c r="C42" t="s">
-        <v>342</v>
-      </c>
-      <c r="D42">
-        <v>20000</v>
-      </c>
-      <c r="E42" t="s">
-        <v>343</v>
-      </c>
-      <c r="F42">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s">
-        <v>344</v>
-      </c>
-      <c r="H42">
-        <v>7000</v>
-      </c>
-      <c r="I42" t="s">
-        <v>345</v>
-      </c>
-      <c r="J42" t="s">
-        <v>346</v>
-      </c>
-      <c r="K42" t="s">
-        <v>347</v>
-      </c>
-      <c r="L42" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>354</v>
-      </c>
-      <c r="B43">
-        <v>12870</v>
-      </c>
-      <c r="C43" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43">
-        <v>20000</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>35</v>
-      </c>
-      <c r="G43" t="s">
-        <v>356</v>
-      </c>
-      <c r="H43">
-        <v>7000</v>
-      </c>
-      <c r="I43" t="s">
-        <v>357</v>
-      </c>
-      <c r="J43" t="s">
-        <v>358</v>
-      </c>
-      <c r="K43" t="s">
-        <v>359</v>
-      </c>
-      <c r="L43" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44">
-        <v>12871</v>
-      </c>
-      <c r="C44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D44">
-        <v>20000</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>356</v>
-      </c>
-      <c r="H44">
-        <v>7000</v>
-      </c>
-      <c r="I44" t="s">
-        <v>357</v>
-      </c>
-      <c r="J44" t="s">
-        <v>358</v>
-      </c>
-      <c r="K44" t="s">
-        <v>359</v>
-      </c>
-      <c r="L44" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>362</v>
-      </c>
-      <c r="B45">
-        <v>12872</v>
-      </c>
-      <c r="C45" t="s">
-        <v>355</v>
-      </c>
-      <c r="D45">
-        <v>20000</v>
-      </c>
-      <c r="E45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>37</v>
-      </c>
-      <c r="G45" t="s">
-        <v>356</v>
-      </c>
-      <c r="H45">
-        <v>7000</v>
-      </c>
-      <c r="I45" t="s">
-        <v>357</v>
-      </c>
-      <c r="J45" t="s">
-        <v>358</v>
-      </c>
-      <c r="K45" t="s">
-        <v>359</v>
-      </c>
-      <c r="L45" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>363</v>
-      </c>
-      <c r="B46">
-        <v>12873</v>
-      </c>
-      <c r="C46" t="s">
-        <v>355</v>
-      </c>
-      <c r="D46">
-        <v>20000</v>
-      </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>38</v>
-      </c>
-      <c r="G46" t="s">
-        <v>356</v>
-      </c>
-      <c r="H46">
-        <v>7000</v>
-      </c>
-      <c r="I46" t="s">
-        <v>357</v>
-      </c>
-      <c r="J46" t="s">
-        <v>358</v>
-      </c>
-      <c r="K46" t="s">
-        <v>359</v>
-      </c>
-      <c r="L46" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>364</v>
-      </c>
-      <c r="B47">
-        <v>12874</v>
-      </c>
-      <c r="C47" t="s">
-        <v>355</v>
-      </c>
-      <c r="D47">
-        <v>20000</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>39</v>
-      </c>
-      <c r="G47" t="s">
-        <v>356</v>
-      </c>
-      <c r="H47">
-        <v>7000</v>
-      </c>
-      <c r="I47" t="s">
-        <v>357</v>
-      </c>
-      <c r="J47" t="s">
-        <v>358</v>
-      </c>
-      <c r="K47" t="s">
-        <v>359</v>
-      </c>
-      <c r="L47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>365</v>
-      </c>
-      <c r="B48">
-        <v>12875</v>
-      </c>
-      <c r="C48" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48">
-        <v>20000</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>40</v>
-      </c>
-      <c r="G48" t="s">
-        <v>356</v>
-      </c>
-      <c r="H48">
-        <v>7000</v>
-      </c>
-      <c r="I48" t="s">
-        <v>357</v>
-      </c>
-      <c r="J48" t="s">
-        <v>358</v>
-      </c>
-      <c r="K48" t="s">
-        <v>359</v>
-      </c>
-      <c r="L48" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>366</v>
-      </c>
-      <c r="B49">
-        <v>12877</v>
-      </c>
-      <c r="C49" t="s">
-        <v>367</v>
-      </c>
-      <c r="D49">
-        <v>20000</v>
-      </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>368</v>
-      </c>
-      <c r="H49">
-        <v>7000</v>
-      </c>
-      <c r="I49" t="s">
-        <v>369</v>
-      </c>
-      <c r="J49" t="s">
-        <v>370</v>
-      </c>
-      <c r="K49" t="s">
-        <v>371</v>
-      </c>
-      <c r="L49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>373</v>
-      </c>
-      <c r="B50">
-        <v>12878</v>
-      </c>
-      <c r="C50" t="s">
-        <v>367</v>
-      </c>
-      <c r="D50">
-        <v>20000</v>
-      </c>
-      <c r="E50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>368</v>
-      </c>
-      <c r="H50">
-        <v>7000</v>
-      </c>
-      <c r="I50" t="s">
-        <v>369</v>
-      </c>
-      <c r="J50" t="s">
-        <v>370</v>
-      </c>
-      <c r="K50" t="s">
-        <v>371</v>
-      </c>
-      <c r="L50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>374</v>
-      </c>
-      <c r="B51">
-        <v>12879</v>
-      </c>
-      <c r="C51" t="s">
-        <v>367</v>
-      </c>
-      <c r="D51">
-        <v>20000</v>
-      </c>
-      <c r="E51" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51">
-        <v>37</v>
-      </c>
-      <c r="G51" t="s">
-        <v>368</v>
-      </c>
-      <c r="H51">
-        <v>7000</v>
-      </c>
-      <c r="I51" t="s">
-        <v>369</v>
-      </c>
-      <c r="J51" t="s">
-        <v>370</v>
-      </c>
-      <c r="K51" t="s">
-        <v>371</v>
-      </c>
-      <c r="L51" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B52">
-        <v>12880</v>
-      </c>
-      <c r="C52" t="s">
-        <v>367</v>
-      </c>
-      <c r="D52">
-        <v>20000</v>
-      </c>
-      <c r="E52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52">
-        <v>38</v>
-      </c>
-      <c r="G52" t="s">
-        <v>368</v>
-      </c>
-      <c r="H52">
-        <v>7000</v>
-      </c>
-      <c r="I52" t="s">
-        <v>369</v>
-      </c>
-      <c r="J52" t="s">
-        <v>370</v>
-      </c>
-      <c r="K52" t="s">
-        <v>371</v>
-      </c>
-      <c r="L52" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>376</v>
-      </c>
-      <c r="B53">
-        <v>12881</v>
-      </c>
-      <c r="C53" t="s">
-        <v>367</v>
-      </c>
-      <c r="D53">
-        <v>20000</v>
-      </c>
-      <c r="E53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53">
-        <v>39</v>
-      </c>
-      <c r="G53" t="s">
-        <v>368</v>
-      </c>
-      <c r="H53">
-        <v>7000</v>
-      </c>
-      <c r="I53" t="s">
-        <v>369</v>
-      </c>
-      <c r="J53" t="s">
-        <v>370</v>
-      </c>
-      <c r="K53" t="s">
-        <v>371</v>
-      </c>
-      <c r="L53" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>377</v>
-      </c>
-      <c r="B54">
-        <v>12882</v>
-      </c>
-      <c r="C54" t="s">
-        <v>367</v>
-      </c>
-      <c r="D54">
-        <v>20000</v>
-      </c>
-      <c r="E54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54">
-        <v>40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>368</v>
-      </c>
-      <c r="H54">
-        <v>7000</v>
-      </c>
-      <c r="I54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J54" t="s">
-        <v>370</v>
-      </c>
-      <c r="K54" t="s">
-        <v>371</v>
-      </c>
-      <c r="L54" t="s">
-        <v>372</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="L1:L84" xr:uid="{945ECBA5-D59E-4CC3-BE3F-272716ADD57A}"/>
+  <mergeCells count="14">
+    <mergeCell ref="H32:V36"/>
+    <mergeCell ref="H2:V6"/>
+    <mergeCell ref="H8:V12"/>
+    <mergeCell ref="H14:V18"/>
+    <mergeCell ref="H20:V24"/>
+    <mergeCell ref="H26:V30"/>
+    <mergeCell ref="H74:V78"/>
+    <mergeCell ref="H80:V84"/>
+    <mergeCell ref="H38:V42"/>
+    <mergeCell ref="H44:V48"/>
+    <mergeCell ref="H50:V54"/>
+    <mergeCell ref="H56:V60"/>
+    <mergeCell ref="H62:V66"/>
+    <mergeCell ref="H68:V72"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Paris/Publicar.xlsx
+++ b/Paris/Publicar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\Paris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668EB5B4-C9D4-4385-9CAC-39BF4995DD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A927F-E202-4B51-BD66-371C3B921195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="123">
   <si>
     <t>Negro</t>
   </si>
@@ -150,6 +150,249 @@
   </si>
   <si>
     <t>Taco 6 Plataforma 1 Caña 40 Material Externo Textil Suela Ecocuero Material Interno PU</t>
+  </si>
+  <si>
+    <t>Botin de Hombre 7005-1 Negro</t>
+  </si>
+  <si>
+    <t>Zapatos Casual de Hombre 8503-8 Brown</t>
+  </si>
+  <si>
+    <t>Zapatos Casual de Hombre 8503-9 Brown</t>
+  </si>
+  <si>
+    <t>Botin de Hombre Cuero 2013 Negro</t>
+  </si>
+  <si>
+    <t>Botin de Hombre Cuero 2013 RedBrown</t>
+  </si>
+  <si>
+    <t>Bota de Mujer 2122 Negro</t>
+  </si>
+  <si>
+    <t>Bota de Mujer 2225-11 Negro</t>
+  </si>
+  <si>
+    <t>Bota de Mujer 2239 Negro</t>
+  </si>
+  <si>
+    <t>Botin de Mujer A602 Negro</t>
+  </si>
+  <si>
+    <t>Botin de Mujer A852-11 Negro</t>
+  </si>
+  <si>
+    <t>13778</t>
+  </si>
+  <si>
+    <t>13779</t>
+  </si>
+  <si>
+    <t>13780</t>
+  </si>
+  <si>
+    <t>13781</t>
+  </si>
+  <si>
+    <t>13782</t>
+  </si>
+  <si>
+    <t>13783</t>
+  </si>
+  <si>
+    <t>13784</t>
+  </si>
+  <si>
+    <t>13785</t>
+  </si>
+  <si>
+    <t>13786</t>
+  </si>
+  <si>
+    <t>13787</t>
+  </si>
+  <si>
+    <t>13788</t>
+  </si>
+  <si>
+    <t>13789</t>
+  </si>
+  <si>
+    <t>13790</t>
+  </si>
+  <si>
+    <t>13791</t>
+  </si>
+  <si>
+    <t>13792</t>
+  </si>
+  <si>
+    <t>13793</t>
+  </si>
+  <si>
+    <t>13794</t>
+  </si>
+  <si>
+    <t>13795</t>
+  </si>
+  <si>
+    <t>13796</t>
+  </si>
+  <si>
+    <t>13797</t>
+  </si>
+  <si>
+    <t>13798</t>
+  </si>
+  <si>
+    <t>13799</t>
+  </si>
+  <si>
+    <t>13800</t>
+  </si>
+  <si>
+    <t>13801</t>
+  </si>
+  <si>
+    <t>13802</t>
+  </si>
+  <si>
+    <t>13803</t>
+  </si>
+  <si>
+    <t>13804</t>
+  </si>
+  <si>
+    <t>13805</t>
+  </si>
+  <si>
+    <t>13806</t>
+  </si>
+  <si>
+    <t>13807</t>
+  </si>
+  <si>
+    <t>13836</t>
+  </si>
+  <si>
+    <t>13837</t>
+  </si>
+  <si>
+    <t>13838</t>
+  </si>
+  <si>
+    <t>13839</t>
+  </si>
+  <si>
+    <t>13840</t>
+  </si>
+  <si>
+    <t>13841</t>
+  </si>
+  <si>
+    <t>13842</t>
+  </si>
+  <si>
+    <t>13843</t>
+  </si>
+  <si>
+    <t>13844</t>
+  </si>
+  <si>
+    <t>13845</t>
+  </si>
+  <si>
+    <t>13846</t>
+  </si>
+  <si>
+    <t>13847</t>
+  </si>
+  <si>
+    <t>13848</t>
+  </si>
+  <si>
+    <t>13849</t>
+  </si>
+  <si>
+    <t>13850</t>
+  </si>
+  <si>
+    <t>13851</t>
+  </si>
+  <si>
+    <t>13852</t>
+  </si>
+  <si>
+    <t>13853</t>
+  </si>
+  <si>
+    <t>13860</t>
+  </si>
+  <si>
+    <t>13861</t>
+  </si>
+  <si>
+    <t>13862</t>
+  </si>
+  <si>
+    <t>13863</t>
+  </si>
+  <si>
+    <t>13864</t>
+  </si>
+  <si>
+    <t>13865</t>
+  </si>
+  <si>
+    <t>13866</t>
+  </si>
+  <si>
+    <t>13867</t>
+  </si>
+  <si>
+    <t>13868</t>
+  </si>
+  <si>
+    <t>13869</t>
+  </si>
+  <si>
+    <t>13870</t>
+  </si>
+  <si>
+    <t>13871</t>
+  </si>
+  <si>
+    <t>Marron</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-6.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-6.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-6.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-6.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-6.jpg</t>
   </si>
 </sst>
 </file>
@@ -206,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -215,10 +458,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,8 +809,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG373"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:AF19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,20 +822,22 @@
   <sheetData>
     <row r="1" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40000</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
+      <c r="E1" s="6">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
@@ -597,11 +845,11 @@
       </c>
       <c r="I1" t="str">
         <f>B1</f>
-        <v>Bota de Mujer A68191 Negro</v>
+        <v>Botin de Hombre 7005-1 Negro</v>
       </c>
       <c r="K1" t="str">
         <f>F1</f>
-        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/A681919Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/A681919Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/A681919Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/A681919Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/A681919Negro-5.jpg</v>
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/7005-1Negro-5.jpg</v>
       </c>
       <c r="L1" t="str">
         <f>D1</f>
@@ -609,68 +857,68 @@
       </c>
       <c r="M1" t="str">
         <f>A1</f>
-        <v>13682</v>
+        <v>13778</v>
       </c>
       <c r="N1">
         <f>E1</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O1" t="str">
         <f>A2</f>
-        <v>13683</v>
+        <v>13779</v>
       </c>
       <c r="P1">
         <f>E2</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="str">
         <f>A3</f>
-        <v>13684</v>
+        <v>13780</v>
       </c>
       <c r="R1">
         <f>E3</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S1" t="str">
         <f>A4</f>
-        <v>13685</v>
+        <v>13781</v>
       </c>
       <c r="T1">
         <f>E4</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U1" t="str">
         <f>A5</f>
-        <v>13686</v>
+        <v>13782</v>
       </c>
       <c r="V1">
         <f>E5</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="W1" t="str">
         <f>A6</f>
-        <v>13687</v>
+        <v>13783</v>
       </c>
       <c r="X1">
         <f>E6</f>
-        <v>40</v>
-      </c>
-      <c r="Z1" s="5">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="4">
         <v>3.5</v>
       </c>
-      <c r="AA1" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="5">
+      <c r="AA1" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="4">
         <v>54</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF1" t="str">
@@ -681,57 +929,59 @@
     </row>
     <row r="2" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40000</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
+      <c r="E2" s="6">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Z2" s="5">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Z2" s="4">
         <v>3.5</v>
       </c>
-      <c r="AA2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="5">
+      <c r="AA2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="4">
         <v>54</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF2" t="str">
@@ -742,57 +992,59 @@
     </row>
     <row r="3" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40000</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
+      <c r="E3" s="6">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Z3" s="5">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Z3" s="4">
         <v>3.5</v>
       </c>
-      <c r="AA3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="5">
+      <c r="AA3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="4">
         <v>54</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF3" t="str">
@@ -803,57 +1055,59 @@
     </row>
     <row r="4" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40000</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
+      <c r="E4" s="6">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Z4" s="5">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Z4" s="4">
         <v>3.5</v>
       </c>
-      <c r="AA4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="5">
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="4">
         <v>54</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF4" t="str">
@@ -864,57 +1118,59 @@
     </row>
     <row r="5" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40000</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
+      <c r="E5" s="6">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Z5" s="5">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Z5" s="4">
         <v>3.5</v>
       </c>
-      <c r="AA5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="5">
+      <c r="AA5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4">
         <v>54</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF5" t="str">
@@ -925,57 +1181,59 @@
     </row>
     <row r="6" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40000</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
+      <c r="E6" s="6">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="5">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Z6" s="4">
         <v>3.5</v>
       </c>
-      <c r="AA6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="5">
+      <c r="AA6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4">
         <v>54</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF6" t="str">
@@ -986,20 +1244,22 @@
     </row>
     <row r="7" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24000</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="E7" s="6">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -1007,83 +1267,83 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" ref="I7" si="1">B7</f>
-        <v>Bota de Mujer 2B305 Negro</v>
+        <v>Zapatos Casual de Hombre 8503-8 Brown</v>
       </c>
       <c r="J7">
         <v>29991</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ref="K7" si="2">F7</f>
-        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2B305Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2B305Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2B305Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/2B35Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/2B35Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/2B35Negro-6.jpg</v>
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-8Brown-6.jpg</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ref="L7" si="3">D7</f>
-        <v>Negro</v>
+        <v>Marron</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" ref="M7" si="4">A7</f>
-        <v>13688</v>
+        <v>13784</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7" si="5">E7</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" ref="O7" si="6">A8</f>
-        <v>13689</v>
+        <v>13785</v>
       </c>
       <c r="P7">
         <f t="shared" ref="P7" si="7">E8</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" ref="Q7" si="8">A9</f>
-        <v>13690</v>
+        <v>13786</v>
       </c>
       <c r="R7">
         <f t="shared" ref="R7" si="9">E9</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" ref="S7" si="10">A10</f>
-        <v>13691</v>
+        <v>13787</v>
       </c>
       <c r="T7">
         <f t="shared" ref="T7" si="11">E10</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" ref="U7" si="12">A11</f>
-        <v>13692</v>
+        <v>13788</v>
       </c>
       <c r="V7">
         <f t="shared" ref="V7" si="13">E11</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" ref="W7" si="14">A12</f>
-        <v>13693</v>
+        <v>13789</v>
       </c>
       <c r="X7">
         <f t="shared" ref="X7" si="15">E12</f>
-        <v>40</v>
-      </c>
-      <c r="Z7" s="5">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="4">
         <v>11</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>2</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="4">
         <v>47</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AC7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AD7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF7" t="str">
@@ -1094,57 +1354,59 @@
     </row>
     <row r="8" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24000</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="E8" s="6">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="5">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Z8" s="4">
         <v>11</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>2</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="4">
         <v>47</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AD8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AE8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF8" t="str">
@@ -1155,57 +1417,59 @@
     </row>
     <row r="9" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24000</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="E9" s="6">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="5">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Z9" s="4">
         <v>11</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="4">
         <v>2</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="4">
         <v>47</v>
       </c>
-      <c r="AC9" s="5" t="s">
+      <c r="AC9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AD9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AE9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF9" t="str">
@@ -1216,57 +1480,59 @@
     </row>
     <row r="10" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>24000</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="E10" s="6">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Z10" s="5">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Z10" s="4">
         <v>11</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="4">
         <v>2</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="4">
         <v>47</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AC10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AD10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AE10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF10" t="str">
@@ -1277,57 +1543,59 @@
     </row>
     <row r="11" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
+        <v>24000</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Z11" s="5">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Z11" s="4">
         <v>11</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="4">
         <v>2</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="4">
         <v>47</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AC11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AD11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AE11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF11" t="str">
@@ -1338,57 +1606,59 @@
     </row>
     <row r="12" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>24000</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Z12" s="5">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Z12" s="4">
         <v>11</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="4">
         <v>2</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" s="4">
         <v>47</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AC12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AD12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE12" s="5" t="s">
+      <c r="AE12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF12" t="str">
@@ -1399,20 +1669,22 @@
     </row>
     <row r="13" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C13" s="1">
+        <v>24000</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+      <c r="E13" s="6">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -1420,83 +1692,83 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" ref="I13" si="16">B13</f>
-        <v>Bota de Mujer Q-08 Negro</v>
+        <v>Zapatos Casual de Hombre 8503-9 Brown</v>
       </c>
       <c r="J13">
         <v>29992</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" ref="K13" si="17">F13</f>
-        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/Q-08Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/Q-08Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/Q-08Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/Q-8Negro-4.jpg</v>
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/8503-9Browm-5.jpg</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ref="L13" si="18">D13</f>
-        <v>Negro</v>
+        <v>Marron</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" ref="M13" si="19">A13</f>
-        <v>13694</v>
+        <v>13790</v>
       </c>
       <c r="N13">
         <f t="shared" ref="N13" si="20">E13</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" ref="O13" si="21">A14</f>
-        <v>13695</v>
+        <v>13791</v>
       </c>
       <c r="P13">
         <f t="shared" ref="P13" si="22">E14</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" ref="Q13" si="23">A15</f>
-        <v>13696</v>
+        <v>13792</v>
       </c>
       <c r="R13">
         <f t="shared" ref="R13" si="24">E15</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" ref="S13" si="25">A16</f>
-        <v>13697</v>
+        <v>13793</v>
       </c>
       <c r="T13">
         <f t="shared" ref="T13" si="26">E16</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" ref="U13" si="27">A17</f>
-        <v>13698</v>
+        <v>13794</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13" si="28">E17</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" ref="W13" si="29">A18</f>
-        <v>13699</v>
+        <v>13795</v>
       </c>
       <c r="X13">
         <f t="shared" ref="X13" si="30">E18</f>
-        <v>40</v>
-      </c>
-      <c r="Z13" s="5">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="4">
         <v>6</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="4">
         <v>3.5</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AB13" s="4">
         <v>55</v>
       </c>
-      <c r="AC13" s="5" t="s">
+      <c r="AC13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AD13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AE13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF13" t="str">
@@ -1507,57 +1779,59 @@
     </row>
     <row r="14" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24000</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+      <c r="E14" s="6">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Z14" s="5">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Z14" s="4">
         <v>6</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="4">
         <v>3.5</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="4">
         <v>55</v>
       </c>
-      <c r="AC14" s="5" t="s">
+      <c r="AC14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AD14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AE14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF14" t="str">
@@ -1568,57 +1842,59 @@
     </row>
     <row r="15" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C15" s="1">
+        <v>24000</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+      <c r="E15" s="6">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Z15" s="5">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Z15" s="4">
         <v>6</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="4">
         <v>3.5</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="4">
         <v>55</v>
       </c>
-      <c r="AC15" s="5" t="s">
+      <c r="AC15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AD15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AE15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF15" t="str">
@@ -1629,57 +1905,59 @@
     </row>
     <row r="16" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>24000</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+      <c r="E16" s="6">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Z16" s="5">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Z16" s="4">
         <v>6</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="4">
         <v>3.5</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="4">
         <v>55</v>
       </c>
-      <c r="AC16" s="5" t="s">
+      <c r="AC16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD16" s="5" t="s">
+      <c r="AD16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE16" s="5" t="s">
+      <c r="AE16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF16" t="str">
@@ -1690,57 +1968,59 @@
     </row>
     <row r="17" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>24000</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Z17" s="5">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Z17" s="4">
         <v>6</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="4">
         <v>3.5</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="4">
         <v>55</v>
       </c>
-      <c r="AC17" s="5" t="s">
+      <c r="AC17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AD17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE17" s="5" t="s">
+      <c r="AE17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF17" t="str">
@@ -1751,57 +2031,59 @@
     </row>
     <row r="18" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>24000</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+      <c r="E18" s="6">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Z18" s="5">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Z18" s="4">
         <v>6</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="4">
         <v>3.5</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="4">
         <v>55</v>
       </c>
-      <c r="AC18" s="5" t="s">
+      <c r="AC18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AD18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AE18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF18" t="str">
@@ -1812,20 +2094,22 @@
     </row>
     <row r="19" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>40000</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
+      <c r="E19" s="6">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
@@ -1833,14 +2117,14 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" ref="I19" si="31">B19</f>
-        <v>Bota de Mujer 2B302 Negro</v>
+        <v>Botin de Hombre Cuero 2013 Negro</v>
       </c>
       <c r="J19">
         <v>29993</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ref="K19" si="32">F19</f>
-        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2B302Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2B302Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2B302Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/2B32Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/2B32Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/223/botasmujer/2B32Negro-6.jpg</v>
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-6.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2013-1Nergro-7.jpg</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ref="L19" si="33">D19</f>
@@ -1848,68 +2132,68 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" ref="M19" si="34">A19</f>
-        <v>13700</v>
+        <v>13796</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="35">E19</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" ref="O19" si="36">A20</f>
-        <v>13701</v>
+        <v>13797</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="37">E20</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" ref="Q19" si="38">A21</f>
-        <v>13702</v>
+        <v>13798</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="39">E21</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" ref="S19" si="40">A22</f>
-        <v>13703</v>
+        <v>13799</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="41">E22</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" ref="U19" si="42">A23</f>
-        <v>13704</v>
+        <v>13800</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="43">E23</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" ref="W19" si="44">A24</f>
-        <v>13705</v>
+        <v>13801</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="45">E24</f>
+        <v>44</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4">
         <v>40</v>
       </c>
-      <c r="Z19" s="5">
-        <v>6</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>40</v>
-      </c>
-      <c r="AC19" s="5" t="s">
+      <c r="AC19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AD19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AE19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF19" t="str">
@@ -1920,57 +2204,59 @@
     </row>
     <row r="20" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C20" s="1">
+        <v>40000</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
+      <c r="E20" s="6">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Z20" s="5">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Z20" s="4">
         <v>6</v>
       </c>
-      <c r="AA20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="5">
+      <c r="AA20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="4">
         <v>40</v>
       </c>
-      <c r="AC20" s="5" t="s">
+      <c r="AC20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD20" s="5" t="s">
+      <c r="AD20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE20" s="5" t="s">
+      <c r="AE20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF20" t="str">
@@ -1981,57 +2267,59 @@
     </row>
     <row r="21" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>40000</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="1">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
+      <c r="E21" s="6">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Z21" s="5">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Z21" s="4">
         <v>6</v>
       </c>
-      <c r="AA21" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="5">
+      <c r="AA21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="4">
         <v>40</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AC21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AD21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AE21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF21" t="str">
@@ -2042,57 +2330,59 @@
     </row>
     <row r="22" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="1">
+        <v>40000</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="1">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
+      <c r="E22" s="6">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Z22" s="5">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Z22" s="4">
         <v>6</v>
       </c>
-      <c r="AA22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="5">
+      <c r="AA22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="4">
         <v>40</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AC22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD22" s="5" t="s">
+      <c r="AD22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AE22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF22" t="str">
@@ -2103,57 +2393,59 @@
     </row>
     <row r="23" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>40000</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
-        <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
+      <c r="E23" s="6">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Z23" s="5">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Z23" s="4">
         <v>6</v>
       </c>
-      <c r="AA23" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="5">
+      <c r="AA23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="4">
         <v>40</v>
       </c>
-      <c r="AC23" s="5" t="s">
+      <c r="AC23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AD23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE23" s="5" t="s">
+      <c r="AE23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF23" t="str">
@@ -2164,57 +2456,59 @@
     </row>
     <row r="24" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>40000</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="1">
-        <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
+      <c r="E24" s="6">
+        <v>44</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Z24" s="5">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Z24" s="4">
         <v>6</v>
       </c>
-      <c r="AA24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="5">
+      <c r="AA24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
         <v>40</v>
       </c>
-      <c r="AC24" s="5" t="s">
+      <c r="AC24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AD24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AE24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AF24" t="str">
@@ -2223,77 +2517,91 @@
       </c>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="F25" s="1"/>
+    <row r="25" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="6">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="str">
         <f t="shared" ref="I25" si="46">B25</f>
-        <v>0</v>
+        <v>Botin de Hombre Cuero 2013 RedBrown</v>
       </c>
       <c r="J25">
         <v>29994</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="str">
         <f t="shared" ref="K25" si="47">F25</f>
-        <v>0</v>
-      </c>
-      <c r="L25">
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Hombre/2103Bronw-6.jpg</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" ref="L25" si="48">D25</f>
-        <v>0</v>
-      </c>
-      <c r="M25">
+        <v>Marron</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" ref="M25" si="49">A25</f>
-        <v>0</v>
+        <v>13802</v>
       </c>
       <c r="N25">
         <f t="shared" ref="N25" si="50">E25</f>
-        <v>0</v>
-      </c>
-      <c r="O25">
+        <v>39</v>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" ref="O25" si="51">A26</f>
-        <v>0</v>
+        <v>13803</v>
       </c>
       <c r="P25">
         <f t="shared" ref="P25" si="52">E26</f>
-        <v>0</v>
-      </c>
-      <c r="Q25">
+        <v>40</v>
+      </c>
+      <c r="Q25" t="str">
         <f t="shared" ref="Q25" si="53">A27</f>
-        <v>0</v>
+        <v>13804</v>
       </c>
       <c r="R25">
         <f t="shared" ref="R25" si="54">E27</f>
-        <v>0</v>
-      </c>
-      <c r="S25">
+        <v>41</v>
+      </c>
+      <c r="S25" t="str">
         <f t="shared" ref="S25" si="55">A28</f>
-        <v>0</v>
+        <v>13805</v>
       </c>
       <c r="T25">
         <f t="shared" ref="T25" si="56">E28</f>
-        <v>0</v>
-      </c>
-      <c r="U25">
+        <v>42</v>
+      </c>
+      <c r="U25" t="str">
         <f t="shared" ref="U25" si="57">A29</f>
-        <v>0</v>
+        <v>13806</v>
       </c>
       <c r="V25">
         <f t="shared" ref="V25" si="58">E29</f>
-        <v>0</v>
-      </c>
-      <c r="W25">
+        <v>43</v>
+      </c>
+      <c r="W25" t="str">
         <f t="shared" ref="W25" si="59">A30</f>
-        <v>0</v>
+        <v>13807</v>
       </c>
       <c r="X25">
         <f t="shared" ref="X25" si="60">E30</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -2304,30 +2612,44 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="6">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -2337,30 +2659,44 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="6">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -2370,30 +2706,44 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="6">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -2403,30 +2753,44 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="6">
+        <v>43</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -2436,30 +2800,44 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="6">
+        <v>44</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -2468,77 +2846,91 @@
       <c r="AE30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="F31" s="1"/>
+    <row r="31" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>35</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="str">
         <f t="shared" ref="I31" si="61">B31</f>
-        <v>0</v>
+        <v>Bota de Mujer 2122 Negro</v>
       </c>
       <c r="J31">
         <v>29995</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="str">
         <f t="shared" ref="K31" si="62">F31</f>
-        <v>0</v>
-      </c>
-      <c r="L31">
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-6.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2122Negro-7.jpg</v>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" ref="L31" si="63">D31</f>
-        <v>0</v>
-      </c>
-      <c r="M31">
+        <v>Negro</v>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" ref="M31" si="64">A31</f>
-        <v>0</v>
+        <v>13836</v>
       </c>
       <c r="N31">
         <f t="shared" ref="N31" si="65">E31</f>
-        <v>0</v>
-      </c>
-      <c r="O31">
+        <v>35</v>
+      </c>
+      <c r="O31" t="str">
         <f t="shared" ref="O31" si="66">A32</f>
-        <v>0</v>
+        <v>13837</v>
       </c>
       <c r="P31">
         <f t="shared" ref="P31" si="67">E32</f>
-        <v>0</v>
-      </c>
-      <c r="Q31">
+        <v>36</v>
+      </c>
+      <c r="Q31" t="str">
         <f t="shared" ref="Q31" si="68">A33</f>
-        <v>0</v>
+        <v>13838</v>
       </c>
       <c r="R31">
         <f t="shared" ref="R31" si="69">E33</f>
-        <v>0</v>
-      </c>
-      <c r="S31">
+        <v>37</v>
+      </c>
+      <c r="S31" t="str">
         <f t="shared" ref="S31" si="70">A34</f>
-        <v>0</v>
+        <v>13839</v>
       </c>
       <c r="T31">
         <f t="shared" ref="T31" si="71">E34</f>
-        <v>0</v>
-      </c>
-      <c r="U31">
+        <v>38</v>
+      </c>
+      <c r="U31" t="str">
         <f t="shared" ref="U31" si="72">A35</f>
-        <v>0</v>
+        <v>13840</v>
       </c>
       <c r="V31">
         <f t="shared" ref="V31" si="73">E35</f>
-        <v>0</v>
-      </c>
-      <c r="W31">
+        <v>39</v>
+      </c>
+      <c r="W31" t="str">
         <f t="shared" ref="W31" si="74">A36</f>
-        <v>0</v>
+        <v>13841</v>
       </c>
       <c r="X31">
         <f t="shared" ref="X31" si="75">E36</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
@@ -2549,30 +2941,44 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>36</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -2582,30 +2988,44 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>37</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -2615,30 +3035,44 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>38</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -2648,30 +3082,44 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>39</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -2681,30 +3129,44 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -2713,77 +3175,91 @@
       <c r="AE36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="F37" s="1"/>
+    <row r="37" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="str">
         <f t="shared" ref="I37" si="76">B37</f>
-        <v>0</v>
+        <v>Bota de Mujer 2225-11 Negro</v>
       </c>
       <c r="J37">
         <v>29996</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="str">
         <f t="shared" ref="K37" si="77">F37</f>
-        <v>0</v>
-      </c>
-      <c r="L37">
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-6.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2225-11Negro-7.jpg</v>
+      </c>
+      <c r="L37" t="str">
         <f t="shared" ref="L37" si="78">D37</f>
-        <v>0</v>
-      </c>
-      <c r="M37">
+        <v>Negro</v>
+      </c>
+      <c r="M37" t="str">
         <f t="shared" ref="M37" si="79">A37</f>
-        <v>0</v>
+        <v>13842</v>
       </c>
       <c r="N37">
         <f t="shared" ref="N37" si="80">E37</f>
-        <v>0</v>
-      </c>
-      <c r="O37">
+        <v>35</v>
+      </c>
+      <c r="O37" t="str">
         <f t="shared" ref="O37" si="81">A38</f>
-        <v>0</v>
+        <v>13843</v>
       </c>
       <c r="P37">
         <f t="shared" ref="P37" si="82">E38</f>
-        <v>0</v>
-      </c>
-      <c r="Q37">
+        <v>36</v>
+      </c>
+      <c r="Q37" t="str">
         <f t="shared" ref="Q37" si="83">A39</f>
-        <v>0</v>
+        <v>13844</v>
       </c>
       <c r="R37">
         <f t="shared" ref="R37" si="84">E39</f>
-        <v>0</v>
-      </c>
-      <c r="S37">
+        <v>37</v>
+      </c>
+      <c r="S37" t="str">
         <f t="shared" ref="S37" si="85">A40</f>
-        <v>0</v>
+        <v>13845</v>
       </c>
       <c r="T37">
         <f t="shared" ref="T37" si="86">E40</f>
-        <v>0</v>
-      </c>
-      <c r="U37">
+        <v>38</v>
+      </c>
+      <c r="U37" t="str">
         <f t="shared" ref="U37" si="87">A41</f>
-        <v>0</v>
+        <v>13846</v>
       </c>
       <c r="V37">
         <f t="shared" ref="V37" si="88">E41</f>
-        <v>0</v>
-      </c>
-      <c r="W37">
+        <v>39</v>
+      </c>
+      <c r="W37" t="str">
         <f t="shared" ref="W37" si="89">A42</f>
-        <v>0</v>
+        <v>13847</v>
       </c>
       <c r="X37">
         <f t="shared" ref="X37" si="90">E42</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
@@ -2794,30 +3270,44 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>36</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -2827,30 +3317,44 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -2860,30 +3364,44 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -2893,30 +3411,44 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>39</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -2926,30 +3458,44 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -2958,75 +3504,90 @@
       <c r="AE42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="F43" s="1"/>
+    <row r="43" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>35</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="str">
         <f t="shared" ref="I43" si="91">B43</f>
-        <v>0</v>
+        <v>Bota de Mujer 2239 Negro</v>
       </c>
       <c r="J43">
         <v>29996</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="str">
         <f t="shared" ref="K43" si="92">F43</f>
-        <v>0</v>
-      </c>
-      <c r="L43">
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/botasmujer/2239Negro-5.jpg</v>
+      </c>
+      <c r="L43" t="str">
         <f t="shared" ref="L43" si="93">D43</f>
-        <v>0</v>
-      </c>
-      <c r="M43">
+        <v>Negro</v>
+      </c>
+      <c r="M43" t="str">
         <f t="shared" ref="M43" si="94">A43</f>
-        <v>0</v>
+        <v>13848</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="95">E43</f>
-        <v>0</v>
-      </c>
-      <c r="O43">
+        <v>35</v>
+      </c>
+      <c r="O43" t="str">
         <f t="shared" ref="O43" si="96">A44</f>
-        <v>0</v>
+        <v>13849</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="97">E44</f>
-        <v>0</v>
-      </c>
-      <c r="Q43">
+        <v>36</v>
+      </c>
+      <c r="Q43" t="str">
         <f t="shared" ref="Q43" si="98">A45</f>
-        <v>0</v>
+        <v>13850</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="99">E45</f>
-        <v>0</v>
-      </c>
-      <c r="S43">
+        <v>37</v>
+      </c>
+      <c r="S43" t="str">
         <f t="shared" ref="S43" si="100">A46</f>
-        <v>0</v>
+        <v>13851</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="101">E46</f>
-        <v>0</v>
-      </c>
-      <c r="U43">
+        <v>38</v>
+      </c>
+      <c r="U43" t="str">
         <f t="shared" ref="U43" si="102">A47</f>
-        <v>0</v>
+        <v>13852</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="103">E47</f>
-        <v>0</v>
-      </c>
-      <c r="W43">
+        <v>39</v>
+      </c>
+      <c r="W43" t="str">
         <f t="shared" ref="W43" si="104">A48</f>
-        <v>0</v>
+        <v>13853</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="105">E48</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
@@ -3037,28 +3598,43 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>36</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -3068,28 +3644,43 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>37</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -3099,28 +3690,43 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>38</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -3130,28 +3736,43 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>39</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
@@ -3161,28 +3782,43 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
@@ -3191,75 +3827,90 @@
       <c r="AE48" s="1"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="F49" s="1"/>
+    <row r="49" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>35</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="str">
         <f t="shared" ref="I49" si="106">B49</f>
-        <v>0</v>
+        <v>Botin de Mujer A602 Negro</v>
       </c>
       <c r="J49">
         <v>29996</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="str">
         <f t="shared" ref="K49" si="107">F49</f>
-        <v>0</v>
-      </c>
-      <c r="L49">
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A602Negro-6.jpg</v>
+      </c>
+      <c r="L49" t="str">
         <f t="shared" ref="L49" si="108">D49</f>
-        <v>0</v>
-      </c>
-      <c r="M49">
+        <v>Negro</v>
+      </c>
+      <c r="M49" t="str">
         <f t="shared" ref="M49" si="109">A49</f>
-        <v>0</v>
+        <v>13860</v>
       </c>
       <c r="N49">
         <f t="shared" ref="N49" si="110">E49</f>
-        <v>0</v>
-      </c>
-      <c r="O49">
+        <v>35</v>
+      </c>
+      <c r="O49" t="str">
         <f t="shared" ref="O49" si="111">A50</f>
-        <v>0</v>
+        <v>13861</v>
       </c>
       <c r="P49">
         <f t="shared" ref="P49" si="112">E50</f>
-        <v>0</v>
-      </c>
-      <c r="Q49">
+        <v>36</v>
+      </c>
+      <c r="Q49" t="str">
         <f t="shared" ref="Q49" si="113">A51</f>
-        <v>0</v>
+        <v>13862</v>
       </c>
       <c r="R49">
         <f t="shared" ref="R49" si="114">E51</f>
-        <v>0</v>
-      </c>
-      <c r="S49">
+        <v>37</v>
+      </c>
+      <c r="S49" t="str">
         <f t="shared" ref="S49" si="115">A52</f>
-        <v>0</v>
+        <v>13863</v>
       </c>
       <c r="T49">
         <f t="shared" ref="T49" si="116">E52</f>
-        <v>0</v>
-      </c>
-      <c r="U49">
+        <v>38</v>
+      </c>
+      <c r="U49" t="str">
         <f t="shared" ref="U49" si="117">A53</f>
-        <v>0</v>
+        <v>13864</v>
       </c>
       <c r="V49">
         <f t="shared" ref="V49" si="118">E53</f>
-        <v>0</v>
-      </c>
-      <c r="W49">
+        <v>39</v>
+      </c>
+      <c r="W49" t="str">
         <f t="shared" ref="W49" si="119">A54</f>
-        <v>0</v>
+        <v>13865</v>
       </c>
       <c r="X49">
         <f t="shared" ref="X49" si="120">E54</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
@@ -3270,28 +3921,43 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
@@ -3301,28 +3967,43 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>37</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
@@ -3332,28 +4013,43 @@
       <c r="AG51" s="1"/>
     </row>
     <row r="52" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>38</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
@@ -3363,28 +4059,43 @@
       <c r="AG52" s="1"/>
     </row>
     <row r="53" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>39</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -3394,28 +4105,43 @@
       <c r="AG53" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>40</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -3424,75 +4150,90 @@
       <c r="AE54" s="1"/>
       <c r="AG54" s="1"/>
     </row>
-    <row r="55" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="F55" s="1"/>
+    <row r="55" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>35</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="str">
         <f t="shared" ref="I55" si="121">B55</f>
-        <v>0</v>
+        <v>Botin de Mujer A852-11 Negro</v>
       </c>
       <c r="J55">
         <v>29996</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="str">
         <f t="shared" ref="K55" si="122">F55</f>
-        <v>0</v>
-      </c>
-      <c r="L55">
+        <v>https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-1.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-2.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-3.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-4.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-5.jpg,https://raw.githubusercontent.com/andrymoran/FotosMH/main/MHFotos/2023/Botin%20de%20Mujer/A852-11Negro-6.jpg</v>
+      </c>
+      <c r="L55" t="str">
         <f t="shared" ref="L55" si="123">D55</f>
-        <v>0</v>
-      </c>
-      <c r="M55">
+        <v>Negro</v>
+      </c>
+      <c r="M55" t="str">
         <f t="shared" ref="M55" si="124">A55</f>
-        <v>0</v>
+        <v>13866</v>
       </c>
       <c r="N55">
         <f t="shared" ref="N55" si="125">E55</f>
-        <v>0</v>
-      </c>
-      <c r="O55">
+        <v>35</v>
+      </c>
+      <c r="O55" t="str">
         <f t="shared" ref="O55" si="126">A56</f>
-        <v>0</v>
+        <v>13867</v>
       </c>
       <c r="P55">
         <f t="shared" ref="P55" si="127">E56</f>
-        <v>0</v>
-      </c>
-      <c r="Q55">
+        <v>36</v>
+      </c>
+      <c r="Q55" t="str">
         <f t="shared" ref="Q55" si="128">A57</f>
-        <v>0</v>
+        <v>13868</v>
       </c>
       <c r="R55">
         <f t="shared" ref="R55" si="129">E57</f>
-        <v>0</v>
-      </c>
-      <c r="S55">
+        <v>37</v>
+      </c>
+      <c r="S55" t="str">
         <f t="shared" ref="S55" si="130">A58</f>
-        <v>0</v>
+        <v>13869</v>
       </c>
       <c r="T55">
         <f t="shared" ref="T55" si="131">E58</f>
-        <v>0</v>
-      </c>
-      <c r="U55">
+        <v>38</v>
+      </c>
+      <c r="U55" t="str">
         <f t="shared" ref="U55" si="132">A59</f>
-        <v>0</v>
+        <v>13870</v>
       </c>
       <c r="V55">
         <f t="shared" ref="V55" si="133">E59</f>
-        <v>0</v>
-      </c>
-      <c r="W55">
+        <v>39</v>
+      </c>
+      <c r="W55" t="str">
         <f t="shared" ref="W55" si="134">A60</f>
-        <v>0</v>
+        <v>13871</v>
       </c>
       <c r="X55">
         <f t="shared" ref="X55" si="135">E60</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
@@ -3503,28 +4244,43 @@
       <c r="AG55" s="1"/>
     </row>
     <row r="56" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>36</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -3534,28 +4290,43 @@
       <c r="AG56" s="1"/>
     </row>
     <row r="57" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>37</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -3565,28 +4336,43 @@
       <c r="AG57" s="1"/>
     </row>
     <row r="58" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>38</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -3596,28 +4382,43 @@
       <c r="AG58" s="1"/>
     </row>
     <row r="59" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>39</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -3627,28 +4428,43 @@
       <c r="AG59" s="1"/>
     </row>
     <row r="60" spans="1:33" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>40</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
@@ -3742,22 +4558,22 @@
       <c r="H62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
@@ -3773,22 +4589,22 @@
       <c r="H63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
@@ -3804,22 +4620,22 @@
       <c r="H64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
@@ -3835,22 +4651,22 @@
       <c r="H65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
@@ -3866,22 +4682,22 @@
       <c r="H66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
@@ -3975,22 +4791,22 @@
       <c r="H68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
@@ -4006,22 +4822,22 @@
       <c r="H69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
@@ -4037,22 +4853,22 @@
       <c r="H70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
@@ -4068,22 +4884,22 @@
       <c r="H71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -4099,22 +4915,22 @@
       <c r="H72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
@@ -4208,22 +5024,22 @@
       <c r="H74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
@@ -4239,22 +5055,22 @@
       <c r="H75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
@@ -4270,22 +5086,22 @@
       <c r="H76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
@@ -4301,22 +5117,22 @@
       <c r="H77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
@@ -4332,22 +5148,22 @@
       <c r="H78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
@@ -4441,22 +5257,22 @@
       <c r="H80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
@@ -4472,22 +5288,22 @@
       <c r="H81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
@@ -4503,22 +5319,22 @@
       <c r="H82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
@@ -4534,22 +5350,22 @@
       <c r="H83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
@@ -4565,22 +5381,22 @@
       <c r="H84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
@@ -4674,22 +5490,22 @@
       <c r="H86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
@@ -4705,22 +5521,22 @@
       <c r="H87" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
@@ -4736,22 +5552,22 @@
       <c r="H88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
@@ -4767,22 +5583,22 @@
       <c r="H89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
@@ -4798,22 +5614,22 @@
       <c r="H90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
@@ -4907,22 +5723,22 @@
       <c r="H92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
@@ -4938,22 +5754,22 @@
       <c r="H93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
@@ -4969,22 +5785,22 @@
       <c r="H94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
@@ -5000,22 +5816,22 @@
       <c r="H95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="W95" s="4"/>
-      <c r="X95" s="4"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
@@ -5031,22 +5847,22 @@
       <c r="H96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="W96" s="4"/>
-      <c r="X96" s="4"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
@@ -5140,22 +5956,22 @@
       <c r="H98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="W98" s="4"/>
-      <c r="X98" s="4"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
@@ -5171,22 +5987,22 @@
       <c r="H99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
@@ -5202,22 +6018,22 @@
       <c r="H100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
-      <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
@@ -5233,22 +6049,22 @@
       <c r="H101" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
@@ -5264,22 +6080,22 @@
       <c r="H102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
@@ -5381,22 +6197,22 @@
       <c r="H104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -5416,22 +6232,22 @@
       <c r="H105" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
@@ -5451,22 +6267,22 @@
       <c r="H106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
@@ -5486,22 +6302,22 @@
       <c r="H107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
-      <c r="T107" s="4"/>
-      <c r="U107" s="4"/>
-      <c r="V107" s="4"/>
-      <c r="W107" s="4"/>
-      <c r="X107" s="4"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
@@ -5521,22 +6337,22 @@
       <c r="H108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
@@ -5627,22 +6443,22 @@
       <c r="H110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5"/>
     </row>
     <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
@@ -5653,22 +6469,22 @@
       <c r="H111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
     </row>
     <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
@@ -5679,22 +6495,22 @@
       <c r="H112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
-      <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="5"/>
+      <c r="X112" s="5"/>
     </row>
     <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
@@ -5705,22 +6521,22 @@
       <c r="H113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="T113" s="4"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
     </row>
     <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -5731,22 +6547,22 @@
       <c r="H114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="T114" s="4"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
-      <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
     </row>
     <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
@@ -5830,22 +6646,22 @@
       <c r="H116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
     </row>
     <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
@@ -5856,22 +6672,22 @@
       <c r="H117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5"/>
     </row>
     <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
@@ -5882,22 +6698,22 @@
       <c r="H118" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
     </row>
     <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
@@ -5908,22 +6724,22 @@
       <c r="H119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-      <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
     </row>
     <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
@@ -5934,22 +6750,22 @@
       <c r="H120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
     </row>
     <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
@@ -6033,22 +6849,22 @@
       <c r="H122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
     </row>
     <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -6059,22 +6875,22 @@
       <c r="H123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
     </row>
     <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
@@ -6085,22 +6901,22 @@
       <c r="H124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5"/>
+      <c r="X124" s="5"/>
     </row>
     <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
@@ -6111,22 +6927,22 @@
       <c r="H125" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="5"/>
+      <c r="X125" s="5"/>
     </row>
     <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
@@ -6137,22 +6953,22 @@
       <c r="H126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
     </row>
     <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="H127" s="1" t="s">
@@ -6241,22 +7057,22 @@
       <c r="H129" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
     </row>
     <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
@@ -6267,22 +7083,22 @@
       <c r="H130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="5"/>
+      <c r="X130" s="5"/>
     </row>
     <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
@@ -6293,22 +7109,22 @@
       <c r="H131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5"/>
+      <c r="X131" s="5"/>
     </row>
     <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
@@ -6319,22 +7135,22 @@
       <c r="H132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
     </row>
     <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
@@ -6345,22 +7161,22 @@
       <c r="H133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
     </row>
     <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
@@ -6444,22 +7260,22 @@
       <c r="H135" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
     </row>
     <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
@@ -6470,22 +7286,22 @@
       <c r="H136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
     </row>
     <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -6496,22 +7312,22 @@
       <c r="H137" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
     </row>
     <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
@@ -6522,22 +7338,22 @@
       <c r="H138" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
-      <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+      <c r="W138" s="5"/>
+      <c r="X138" s="5"/>
     </row>
     <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
@@ -6548,22 +7364,22 @@
       <c r="H139" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+      <c r="W139" s="5"/>
+      <c r="X139" s="5"/>
     </row>
     <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
@@ -6647,22 +7463,22 @@
       <c r="H141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
     </row>
     <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
@@ -6673,22 +7489,22 @@
       <c r="H142" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
     </row>
     <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
@@ -6699,22 +7515,22 @@
       <c r="H143" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
     </row>
     <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
@@ -6725,22 +7541,22 @@
       <c r="H144" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
     </row>
     <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
@@ -6751,22 +7567,22 @@
       <c r="H145" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
     </row>
     <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
@@ -6850,22 +7666,22 @@
       <c r="H147" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
     </row>
     <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
@@ -6876,22 +7692,22 @@
       <c r="H148" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
     </row>
     <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
@@ -6902,22 +7718,22 @@
       <c r="H149" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="4"/>
-      <c r="X149" s="4"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
     </row>
     <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
@@ -6928,22 +7744,22 @@
       <c r="H150" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
     </row>
     <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -6954,22 +7770,22 @@
       <c r="H151" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="4"/>
-      <c r="X151" s="4"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
     </row>
     <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="H152" s="1" t="s">
@@ -7063,22 +7879,22 @@
       <c r="H155" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="4"/>
-      <c r="X155" s="4"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
     </row>
     <row r="156" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
@@ -7089,22 +7905,22 @@
       <c r="H156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-      <c r="S156" s="4"/>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="W156" s="4"/>
-      <c r="X156" s="4"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
     </row>
     <row r="157" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
@@ -7115,22 +7931,22 @@
       <c r="H157" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
-      <c r="P157" s="4"/>
-      <c r="Q157" s="4"/>
-      <c r="R157" s="4"/>
-      <c r="S157" s="4"/>
-      <c r="T157" s="4"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
-      <c r="W157" s="4"/>
-      <c r="X157" s="4"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
     </row>
     <row r="158" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
@@ -7141,22 +7957,22 @@
       <c r="H158" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
-      <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
-      <c r="S158" s="4"/>
-      <c r="T158" s="4"/>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
-      <c r="W158" s="4"/>
-      <c r="X158" s="4"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5"/>
+      <c r="W158" s="5"/>
+      <c r="X158" s="5"/>
     </row>
     <row r="159" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
@@ -7167,22 +7983,22 @@
       <c r="H159" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="4"/>
-      <c r="X159" s="4"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+      <c r="V159" s="5"/>
+      <c r="W159" s="5"/>
+      <c r="X159" s="5"/>
     </row>
     <row r="160" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
@@ -7266,22 +8082,22 @@
       <c r="H161" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="4"/>
-      <c r="P161" s="4"/>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
-      <c r="S161" s="4"/>
-      <c r="T161" s="4"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
-      <c r="W161" s="4"/>
-      <c r="X161" s="4"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="5"/>
+      <c r="W161" s="5"/>
+      <c r="X161" s="5"/>
     </row>
     <row r="162" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
@@ -7292,22 +8108,22 @@
       <c r="H162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-      <c r="S162" s="4"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="4"/>
-      <c r="X162" s="4"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
+      <c r="W162" s="5"/>
+      <c r="X162" s="5"/>
     </row>
     <row r="163" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
@@ -7318,22 +8134,22 @@
       <c r="H163" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-      <c r="S163" s="4"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="4"/>
-      <c r="X163" s="4"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
+      <c r="W163" s="5"/>
+      <c r="X163" s="5"/>
     </row>
     <row r="164" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
@@ -7344,22 +8160,22 @@
       <c r="H164" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
-      <c r="X164" s="4"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="5"/>
     </row>
     <row r="165" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
@@ -7370,22 +8186,22 @@
       <c r="H165" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
-      <c r="S165" s="4"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="4"/>
-      <c r="X165" s="4"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
     </row>
     <row r="166" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
@@ -7469,22 +8285,22 @@
       <c r="H167" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
-      <c r="S167" s="4"/>
-      <c r="T167" s="4"/>
-      <c r="U167" s="4"/>
-      <c r="V167" s="4"/>
-      <c r="W167" s="4"/>
-      <c r="X167" s="4"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="5"/>
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="5"/>
+      <c r="V167" s="5"/>
+      <c r="W167" s="5"/>
+      <c r="X167" s="5"/>
     </row>
     <row r="168" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
@@ -7495,22 +8311,22 @@
       <c r="H168" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5"/>
+      <c r="V168" s="5"/>
+      <c r="W168" s="5"/>
+      <c r="X168" s="5"/>
     </row>
     <row r="169" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
@@ -7521,22 +8337,22 @@
       <c r="H169" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
-      <c r="P169" s="4"/>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
-      <c r="S169" s="4"/>
-      <c r="T169" s="4"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
-      <c r="W169" s="4"/>
-      <c r="X169" s="4"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="5"/>
+      <c r="V169" s="5"/>
+      <c r="W169" s="5"/>
+      <c r="X169" s="5"/>
     </row>
     <row r="170" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
@@ -7547,22 +8363,22 @@
       <c r="H170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
-      <c r="S170" s="4"/>
-      <c r="T170" s="4"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
-      <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5"/>
+      <c r="V170" s="5"/>
+      <c r="W170" s="5"/>
+      <c r="X170" s="5"/>
     </row>
     <row r="171" spans="1:24" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
@@ -7573,22 +8389,22 @@
       <c r="H171" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
-      <c r="S171" s="4"/>
-      <c r="T171" s="4"/>
-      <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
-      <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="5"/>
+      <c r="V171" s="5"/>
+      <c r="W171" s="5"/>
+      <c r="X171" s="5"/>
     </row>
     <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="G172" t="s">
@@ -8871,13 +9687,35 @@
   <autoFilter ref="I1:I373" xr:uid="{E3553987-63DB-4D03-AA5A-BA7BE6A9845B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Bota de Mujer 2B302 Negro"/>
-        <filter val="Bota de Mujer 2B305 Negro"/>
-        <filter val="Bota de Mujer Q-08 Negro"/>
+        <filter val="Bota de Mujer 2122 Negro"/>
+        <filter val="Bota de Mujer 2225-11 Negro"/>
+        <filter val="Bota de Mujer 2239 Negro"/>
+        <filter val="Botin de Hombre Cuero 2013 Negro"/>
+        <filter val="Botin de Hombre Cuero 2013 RedBrown"/>
+        <filter val="Botin de Mujer A602 Negro"/>
+        <filter val="Botin de Mujer A852-11 Negro"/>
+        <filter val="Zapatos Casual de Hombre 8503-8 Brown"/>
+        <filter val="Zapatos Casual de Hombre 8503-9 Brown"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="28">
+    <mergeCell ref="I167:X171"/>
+    <mergeCell ref="I135:X139"/>
+    <mergeCell ref="I141:X145"/>
+    <mergeCell ref="I147:X151"/>
+    <mergeCell ref="I155:X159"/>
+    <mergeCell ref="I161:X165"/>
+    <mergeCell ref="I104:X108"/>
+    <mergeCell ref="I110:X114"/>
+    <mergeCell ref="I116:X120"/>
+    <mergeCell ref="I122:X126"/>
+    <mergeCell ref="I129:X133"/>
+    <mergeCell ref="I86:X90"/>
+    <mergeCell ref="I92:X96"/>
+    <mergeCell ref="I98:X102"/>
+    <mergeCell ref="I74:X78"/>
+    <mergeCell ref="I80:X84"/>
     <mergeCell ref="I68:X72"/>
     <mergeCell ref="I32:X36"/>
     <mergeCell ref="I2:X6"/>
@@ -8890,22 +9728,6 @@
     <mergeCell ref="I50:X54"/>
     <mergeCell ref="I56:X60"/>
     <mergeCell ref="I62:X66"/>
-    <mergeCell ref="I86:X90"/>
-    <mergeCell ref="I92:X96"/>
-    <mergeCell ref="I98:X102"/>
-    <mergeCell ref="I74:X78"/>
-    <mergeCell ref="I80:X84"/>
-    <mergeCell ref="I104:X108"/>
-    <mergeCell ref="I110:X114"/>
-    <mergeCell ref="I116:X120"/>
-    <mergeCell ref="I122:X126"/>
-    <mergeCell ref="I129:X133"/>
-    <mergeCell ref="I167:X171"/>
-    <mergeCell ref="I135:X139"/>
-    <mergeCell ref="I141:X145"/>
-    <mergeCell ref="I147:X151"/>
-    <mergeCell ref="I155:X159"/>
-    <mergeCell ref="I161:X165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8915,7 +9737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1952D9-5E40-44DF-A1B5-66E3B1CB23CE}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P4" sqref="E1:P4"/>
     </sheetView>
   </sheetViews>
